--- a/Theoretical models/Cobb-Douglas model/Cobb-Douglas model.xlsx
+++ b/Theoretical models/Cobb-Douglas model/Cobb-Douglas model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niemi\Desktop\Hotelling Model\Theoretical models\Cobb-Douglas model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08048E60-B6A6-458F-B694-0E7F5A10E378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2621CA1-E792-4749-8556-465ADB234FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Parameters</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>TR</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Equilibrium</t>
+  </si>
+  <si>
+    <t>Short-run</t>
+  </si>
+  <si>
+    <t>Long-run</t>
+  </si>
+  <si>
+    <t>P**</t>
+  </si>
+  <si>
+    <t>Q**</t>
   </si>
 </sst>
 </file>
@@ -3898,7 +3916,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.1558966377577312E-2"/>
+          <c:y val="0.18708132933379359"/>
+          <c:w val="0.9343590373700037"/>
+          <c:h val="0.70573476800640578"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -4560,11 +4588,356 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Equilibrium!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Equilibrium!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.256361855851836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.683281572999746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.636205868970524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.690977538166994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.374047951142096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.864730480992588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.813002452294658</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.044733192202056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4636889301513385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0124418298585329</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6546511500677088</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3662292805633669</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1305989968045136</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.935991486505527</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7738301602870452</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6377237117036714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.5228166595863932</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.4253577932266772</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.342405882279988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2716243726023038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2111352464625771</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.1594131118782691</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.1152071997951012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0774830736787138</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0453784915222863</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0181695800696025</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.9952446253096907</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.976083558200818</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9602417479111178</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.9473370874270266</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.9370396202316087</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9290631459994945</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.9231583805955168</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.9191073464331385</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.9167187439435951</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.9158241108051772</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.9162746177902932</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.9179383822275069</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9206982047429522</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.924449654019055</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.9290994391611109</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.9345640209051478</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.9407684220849699</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.9476452050650437</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.955133589662891</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.9631786897524854</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.9717308505049527</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.9807450712743844</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.9901805016214329</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.0101697463019663</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.0206589008322728</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.0314393034270486</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.0424852073755657</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.0537730435975785</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.0652812111896237</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.0769898910098963</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.0888808794398397</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.100937439856569</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.113144169685965</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1254868811916712</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.1379524943985562</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.1505289407571659</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.163205076333985</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.1759706034654123</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.1888159999453265</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.2017324549298962</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.2147118108418828</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.2277465106420244</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.2408295499093747</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.2539544332370784</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2671151345064358</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.2803060606514292</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.2935220185690453</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.3067581848685945</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.3200100781865194</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.3332735338225419</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.3465446804787717</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.3598199189063331</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.3730959022841871</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.3863695181727893</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.3996378719011204</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.412898271259686</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.4261482123847529</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.4393853667302032</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.4526075690334661</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.4658128061908542</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.4789992069657032</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.4921650324598126</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.5053086672851661</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.5184286113786616</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.53152347240776</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.5445919587196801</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.5576328727909274</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.5706451051377917</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.5836276286518398</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.5965794933275674</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.6094998213521894</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.6223878025300182</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.6352426900163222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BA1-4597-94E2-ED4B36989609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Equilibrium!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4899,7 +5272,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Equilibrium!$C$2:$C$102</c:f>
+              <c:f>Equilibrium!$D$2:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5841,304 +6214,304 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.666666666666657</c:v>
+                  <c:v>83.333333333333314</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.333333333333336</c:v>
+                  <c:v>41.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.571428571428573</c:v>
+                  <c:v>35.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>31.250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.777777777777782</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>25.000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.222222222222225</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.000000000000004</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.181818181818183</c:v>
+                  <c:v>22.72727272727273</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.666666666666668</c:v>
+                  <c:v>20.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.384615384615383</c:v>
+                  <c:v>19.23076923076923</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.285714285714285</c:v>
+                  <c:v>17.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.333333333333332</c:v>
+                  <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.499999999999998</c:v>
+                  <c:v>15.624999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.764705882352938</c:v>
+                  <c:v>14.705882352941172</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.111111111111109</c:v>
+                  <c:v>13.888888888888886</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.526315789473681</c:v>
+                  <c:v>13.157894736842101</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.9999999999999982</c:v>
+                  <c:v>12.499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.5238095238095219</c:v>
+                  <c:v>11.904761904761902</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0909090909090882</c:v>
+                  <c:v>11.36363636363636</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.6956521739130412</c:v>
+                  <c:v>10.869565217391301</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>10.416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.9999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.6153846153846114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.259259259259256</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.9285714285714253</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.6206896551724093</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>8.3333333333333304</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.9999999999999973</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.6923076923076898</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.4074074074074048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.1428571428571397</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.8965517241379279</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.6666666666666634</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.4516129032258034</c:v>
+                  <c:v>8.0645161290322545</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>7.8124999999999964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.5757575757575717</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.3529411764705843</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.1428571428571388</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.9444444444444411</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7567567567567535</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.5789473684210487</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.410256410256407</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>6.2499999999999973</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.0606060606060579</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.8823529411764675</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.7142857142857117</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.5555555555555527</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.4054054054054026</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.2631578947368389</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.1282051282051251</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.9999999999999982</c:v>
-                </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.878048780487803</c:v>
+                  <c:v>6.0975609756097544</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.761904761904761</c:v>
+                  <c:v>5.9523809523809508</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.6511627906976738</c:v>
+                  <c:v>5.8139534883720918</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.545454545454545</c:v>
+                  <c:v>5.6818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.4444444444444446</c:v>
+                  <c:v>5.5555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.3478260869565224</c:v>
+                  <c:v>5.4347826086956523</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.255319148936171</c:v>
+                  <c:v>5.3191489361702136</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.1666666666666679</c:v>
+                  <c:v>5.2083333333333348</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.0816326530612255</c:v>
+                  <c:v>5.1020408163265323</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.0000000000000018</c:v>
+                  <c:v>5.0000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.921568627450982</c:v>
+                  <c:v>4.9019607843137276</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.846153846153848</c:v>
+                  <c:v>4.8076923076923102</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.7735849056603792</c:v>
+                  <c:v>4.7169811320754746</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.7037037037037059</c:v>
+                  <c:v>4.6296296296296324</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.6363636363636389</c:v>
+                  <c:v>4.5454545454545485</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.5714285714285738</c:v>
+                  <c:v>4.4642857142857171</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.5087719298245639</c:v>
+                  <c:v>4.3859649122807047</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.4482758620689684</c:v>
+                  <c:v>4.31034482758621</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.3898305084745792</c:v>
+                  <c:v>4.2372881355932241</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.3333333333333361</c:v>
+                  <c:v>4.1666666666666705</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.2786885245901671</c:v>
+                  <c:v>4.098360655737709</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.2258064516129066</c:v>
+                  <c:v>4.0322580645161326</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.174603174603178</c:v>
+                  <c:v>3.9682539682539724</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.1250000000000031</c:v>
+                  <c:v>3.906250000000004</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.0769230769230802</c:v>
+                  <c:v>3.8461538461538503</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.0303030303030338</c:v>
+                  <c:v>3.7878787878787921</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.9850746268656749</c:v>
+                  <c:v>3.7313432835820941</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.9411764705882386</c:v>
+                  <c:v>3.6764705882352984</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.8985507246376847</c:v>
+                  <c:v>3.623188405797106</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.8571428571428608</c:v>
+                  <c:v>3.5714285714285761</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.816901408450708</c:v>
+                  <c:v>3.5211267605633849</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.7777777777777817</c:v>
+                  <c:v>3.4722222222222268</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.7397260273972641</c:v>
+                  <c:v>3.4246575342465801</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.7027027027027066</c:v>
+                  <c:v>3.378378378378383</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.6666666666666705</c:v>
+                  <c:v>3.3333333333333379</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.6315789473684248</c:v>
+                  <c:v>3.289473684210531</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.5974025974026014</c:v>
+                  <c:v>3.2467532467532516</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.5641025641025679</c:v>
+                  <c:v>3.2051282051282097</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.5316455696202569</c:v>
+                  <c:v>3.1645569620253213</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.500000000000004</c:v>
+                  <c:v>3.1250000000000049</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.4691358024691397</c:v>
+                  <c:v>3.0864197530864246</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.4390243902439064</c:v>
+                  <c:v>3.048780487804883</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.4096385542168712</c:v>
+                  <c:v>3.0120481927710894</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.3809523809523849</c:v>
+                  <c:v>2.9761904761904812</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.3529411764705923</c:v>
+                  <c:v>2.9411764705882404</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.3255813953488413</c:v>
+                  <c:v>2.9069767441860512</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.2988505747126475</c:v>
+                  <c:v>2.8735632183908093</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.2727272727272765</c:v>
+                  <c:v>2.8409090909090957</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.2471910112359592</c:v>
+                  <c:v>2.8089887640449489</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.2222222222222263</c:v>
+                  <c:v>2.7777777777777826</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.1978021978022015</c:v>
+                  <c:v>2.7472527472527521</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.1739130434782648</c:v>
+                  <c:v>2.717391304347831</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.150537634408606</c:v>
+                  <c:v>2.6881720430107574</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1276595744680891</c:v>
+                  <c:v>2.6595744680851112</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.1052631578947407</c:v>
+                  <c:v>2.6315789473684261</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.0833333333333375</c:v>
+                  <c:v>2.6041666666666714</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.0618556701030966</c:v>
+                  <c:v>2.577319587628871</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.0408163265306163</c:v>
+                  <c:v>2.5510204081632701</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0202020202020243</c:v>
+                  <c:v>2.52525252525253</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.000000000000004</c:v>
+                  <c:v>2.5000000000000049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6151,11 +6524,356 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Simple model'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Simple model'!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.01865206693766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.076191948078069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.506884562802135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.311236978257305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.489607298623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.375607199035834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.255179156855039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.771373932262222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.725947115656735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.517908607186023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.229289069136421</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.099287260837604</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.103030424045274</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.222298432138157</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.443443544807868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.756044528321144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.152009526267509</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.624962331036571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.169812850522913</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.782450360180821</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.459520463600633</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.198260278310833</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.996374859121463</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.851943308269579</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.763346576376197</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.729211327926663</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.748365852902715</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.819805115029759</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.942662803233031</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.116188803655731</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.339730905418303</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25.612719841145328</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.93465697491969</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28.305104107519767</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.723674986680486</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.190028199318625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.703861190727487</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34.264905208097495</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35.872921006284656</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37.527695185406635</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39.229037054714198</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40.97677593684827</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42.770758842227799</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44.610848455822065</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.496921388618027</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.428866654224663</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50.406584337659964</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52.429984428757287</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54.498985797046288</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56.613515288602017</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>58.773506928364114</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60.978901213923514</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>63.229644488855108</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65.525688385412209</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>67.866989327859457</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>70.253508088947527</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>72.685209393071176</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>75.162061560531285</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>77.684036188067068</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>80.251107861462373</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>82.863253896573013</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>85.520454105587646</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88.222690585735734</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>90.969947528000773</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>93.762211043693242</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>96.599469006996529</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>99.481710911822788</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>102.40892774150693</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>105.38111185004023</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>108.39825685368811</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>111.4603575319699</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>114.56740973708737</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>117.71941031099171</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>120.91635700936347</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>124.15824843185709</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>127.44508395803268</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>130.77686368845093</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>134.15358839046908</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>137.57525944831471</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>141.04187881706133</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>144.55344898016554</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>148.10997291025669</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>151.71145403290336</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>155.35789619310412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>159.04930362427538</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>162.78568091952954</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>166.567033005057</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>170.39336511544076</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>174.26468277074886</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>178.18099175526294</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>182.14229809771695</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>186.14860805292497</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>190.19992808469203</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>194.29626484991263</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>198.43762518376195</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>202.62401608590272</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>206.85544470762991</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>211.13191833988259</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>215.4534444020635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C0DF-43DB-9121-D14177265B60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Simple model'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6490,7 +7208,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Simple model'!$C$2:$C$102</c:f>
+              <c:f>'Simple model'!$D$2:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -6498,304 +7216,304 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.158113883008419</c:v>
+                  <c:v>5.6521414962619483E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44721359549995809</c:v>
+                  <c:v>0.2308846911456732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82158383625774933</c:v>
+                  <c:v>0.52591281657215128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.264911064067352</c:v>
+                  <c:v>0.94314235835546667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7677669529663689</c:v>
+                  <c:v>1.4836584806757602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3237900077244502</c:v>
+                  <c:v>2.1483046435429296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.928310092869264</c:v>
+                  <c:v>2.9377723367901609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.577708763999663</c:v>
+                  <c:v>3.8526482795824868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2690748412273116</c:v>
+                  <c:v>4.893442438017038</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9999999999999991</c:v>
+                  <c:v>6.0606060606060588</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.768448664935832</c:v>
+                  <c:v>7.354543988717972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5726706900619938</c:v>
+                  <c:v>8.7756234418275323</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.4111402631443966</c:v>
+                  <c:v>10.324180510696705</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.2825116963394638</c:v>
+                  <c:v>12.000525094509491</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.1855865354369204</c:v>
+                  <c:v>13.804944743853005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.119288512538818</c:v>
+                  <c:v>15.737707711538997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.082644088844507</c:v>
+                  <c:v>17.799065415589926</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.074767078498869</c:v>
+                  <c:v>19.989254456702891</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.094846314485714</c:v>
+                  <c:v>22.308498291817365</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.142135623730956</c:v>
+                  <c:v>24.757008637948221</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15.215945583498915</c:v>
+                  <c:v>27.334986661442606</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16.315636671610466</c:v>
+                  <c:v>30.042623994382083</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.440613521318575</c:v>
+                  <c:v>32.880103610164582</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18.590320061795612</c:v>
+                  <c:v>35.84760058319636</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.764235376052383</c:v>
+                  <c:v>38.945282752332062</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.961870145576246</c:v>
+                  <c:v>42.173311303704097</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.182763578959243</c:v>
+                  <c:v>45.531841285524131</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.42648074295413</c:v>
+                  <c:v>49.021022065073169</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.692610230593296</c:v>
+                  <c:v>52.640997736244827</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.980762113533181</c:v>
+                  <c:v>56.391907484544539</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27.290566135571481</c:v>
+                  <c:v>60.273885915281305</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.621670111997332</c:v>
+                  <c:v>64.28706334975243</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29.973738505565191</c:v>
+                  <c:v>68.431566093461512</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>31.346451154795837</c:v>
+                  <c:v>72.707516679792292</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32.739502134272016</c:v>
+                  <c:v>77.115034092051246</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>34.152598729818529</c:v>
+                  <c:v>81.654233966371848</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>35.58546051409202</c:v>
+                  <c:v>86.325228777624005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.037818510274093</c:v>
+                  <c:v>91.128128010178997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>38.509414433356454</c:v>
+                  <c:v>96.063038315136154</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.000000000000028</c:v>
+                  <c:v>101.13006365540805</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.509336299199042</c:v>
+                  <c:v>106.32930543988708</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.037193217030335</c:v>
+                  <c:v>111.66086264776308</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.58334890965461</c:v>
+                  <c:v>117.12483194393768</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>46.147589319486677</c:v>
+                  <c:v>122.72130778636523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>47.729707730091953</c:v>
+                  <c:v>128.45038252606014</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>49.32950435591259</c:v>
+                  <c:v>134.31214650042355</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50.946785963395172</c:v>
+                  <c:v>140.30668812047449</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>52.581365520495936</c:v>
+                  <c:v>146.43409395250492</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>54.233061871887685</c:v>
+                  <c:v>152.69444879462628</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>55.901699437494727</c:v>
+                  <c:v>159.08783574862511</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>57.587107932244663</c:v>
+                  <c:v>165.61433628750461</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>59.28912210515513</c:v>
+                  <c:v>172.27403031905209</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>61.007581496073044</c:v>
+                  <c:v>179.06699624573733</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>62.742330208560119</c:v>
+                  <c:v>185.99331102122198</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>64.493216697572095</c:v>
+                  <c:v>193.05305020372847</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>66.26009357071564</c:v>
+                  <c:v>200.24628800650049</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>68.042817401985872</c:v>
+                  <c:v>207.57309734556134</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>69.841248556995211</c:v>
+                  <c:v>215.03354988495965</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>71.655251028797522</c:v>
+                  <c:v>222.62771607967878</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>73.484692283495221</c:v>
+                  <c:v>230.35566521636483</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>75.32944311489355</c:v>
+                  <c:v>238.21746545202208</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>77.189377507530025</c:v>
+                  <c:v>246.21318385080778</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>79.064372507470026</c:v>
+                  <c:v>254.34288641904863</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>80.954308100310357</c:v>
+                  <c:v>262.60663813859315</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>82.859067095882608</c:v>
+                  <c:v>271.0045029986037</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>84.778535019189732</c:v>
+                  <c:v>279.53654402588404</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>86.712600007149916</c:v>
+                  <c:v>288.20282331382936</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>88.661152710755871</c:v>
+                  <c:v>297.00340205008689</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>90.624086202289362</c:v>
+                  <c:v>305.93834054299418</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>92.60129588726052</c:v>
+                  <c:v>315.00769824687512</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>94.592679420766814</c:v>
+                  <c:v>324.21153378625075</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>96.598136627990698</c:v>
+                  <c:v>333.54990497903339</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>98.617569428575763</c:v>
+                  <c:v>343.02286885875378</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>100.65088176464204</c:v>
+                  <c:v>352.63048169587984</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>102.69797953221843</c:v>
+                  <c:v>362.37279901827316</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>104.75877051588542</c:v>
+                  <c:v>372.24987563082692</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>106.83316432643915</c:v>
+                  <c:v>382.26176563433751</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>108.9210723413975</c:v>
+                  <c:v>392.40852244363532</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>111.02240764818582</c:v>
+                  <c:v>402.69019880502714</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>113.13708498984735</c:v>
+                  <c:v>413.10684681307487</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>115.26502071313715</c:v>
+                  <c:v>423.65851792674772</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>117.40613271886579</c:v>
+                  <c:v>434.34526298498059</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>119.56034041436956</c:v>
+                  <c:v>445.16713222166135</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>121.72756466799093</c:v>
+                  <c:v>456.12417528008228</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>123.9077277654623</c:v>
+                  <c:v>467.21644122687519</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>126.10075336809027</c:v>
+                  <c:v>478.44397856545748</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>128.30656647264752</c:v>
+                  <c:v>489.80683524900968</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>130.52509337288336</c:v>
+                  <c:v>501.30505869301021</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>132.75626162256867</c:v>
+                  <c:v>512.93869578734177</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>134.99999999999966</c:v>
+                  <c:v>524.70779290799317</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>137.25623847388462</c:v>
+                  <c:v>536.61239592836921</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>139.52490817054814</c:v>
+                  <c:v>548.65255023023576</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>141.80594134238487</c:v>
+                  <c:v>560.8283007143051</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>144.09927133750494</c:v>
+                  <c:v>573.13969181047867</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>146.40483257051275</c:v>
+                  <c:v>585.5867674877735</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>148.72256049436439</c:v>
+                  <c:v>598.16957126392515</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>151.05239157325468</c:v>
+                  <c:v>610.88814621470055</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>153.39426325648515</c:v>
+                  <c:v>623.74253498292308</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>155.74811395326702</c:v>
+                  <c:v>636.73277978721694</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>158.11388300841853</c:v>
+                  <c:v>649.85892243049545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7089,7 +7807,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Simple model'!$C$1</c:f>
+              <c:f>'Simple model'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7419,309 +8137,309 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Simple model'!$C$3:$C$102</c:f>
+              <c:f>'Simple model'!$D$3:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.158113883008419</c:v>
+                  <c:v>5.6521414962619483E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44721359549995809</c:v>
+                  <c:v>0.2308846911456732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82158383625774933</c:v>
+                  <c:v>0.52591281657215128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.264911064067352</c:v>
+                  <c:v>0.94314235835546667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7677669529663689</c:v>
+                  <c:v>1.4836584806757602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3237900077244502</c:v>
+                  <c:v>2.1483046435429296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.928310092869264</c:v>
+                  <c:v>2.9377723367901609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.577708763999663</c:v>
+                  <c:v>3.8526482795824868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2690748412273116</c:v>
+                  <c:v>4.893442438017038</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9999999999999991</c:v>
+                  <c:v>6.0606060606060588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.768448664935832</c:v>
+                  <c:v>7.354543988717972</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5726706900619938</c:v>
+                  <c:v>8.7756234418275323</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4111402631443966</c:v>
+                  <c:v>10.324180510696705</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2825116963394638</c:v>
+                  <c:v>12.000525094509491</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.1855865354369204</c:v>
+                  <c:v>13.804944743853005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.119288512538818</c:v>
+                  <c:v>15.737707711538997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.082644088844507</c:v>
+                  <c:v>17.799065415589926</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.074767078498869</c:v>
+                  <c:v>19.989254456702891</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.094846314485714</c:v>
+                  <c:v>22.308498291817365</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.142135623730956</c:v>
+                  <c:v>24.757008637948221</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.215945583498915</c:v>
+                  <c:v>27.334986661442606</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.315636671610466</c:v>
+                  <c:v>30.042623994382083</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.440613521318575</c:v>
+                  <c:v>32.880103610164582</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.590320061795612</c:v>
+                  <c:v>35.84760058319636</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.764235376052383</c:v>
+                  <c:v>38.945282752332062</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.961870145576246</c:v>
+                  <c:v>42.173311303704097</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.182763578959243</c:v>
+                  <c:v>45.531841285524131</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.42648074295413</c:v>
+                  <c:v>49.021022065073169</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24.692610230593296</c:v>
+                  <c:v>52.640997736244827</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>25.980762113533181</c:v>
+                  <c:v>56.391907484544539</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.290566135571481</c:v>
+                  <c:v>60.273885915281305</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.621670111997332</c:v>
+                  <c:v>64.28706334975243</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>29.973738505565191</c:v>
+                  <c:v>68.431566093461512</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>31.346451154795837</c:v>
+                  <c:v>72.707516679792292</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>32.739502134272016</c:v>
+                  <c:v>77.115034092051246</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34.152598729818529</c:v>
+                  <c:v>81.654233966371848</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>35.58546051409202</c:v>
+                  <c:v>86.325228777624005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.037818510274093</c:v>
+                  <c:v>91.128128010178997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.509414433356454</c:v>
+                  <c:v>96.063038315136154</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.000000000000028</c:v>
+                  <c:v>101.13006365540805</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.509336299199042</c:v>
+                  <c:v>106.32930543988708</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43.037193217030335</c:v>
+                  <c:v>111.66086264776308</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44.58334890965461</c:v>
+                  <c:v>117.12483194393768</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>46.147589319486677</c:v>
+                  <c:v>122.72130778636523</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>47.729707730091953</c:v>
+                  <c:v>128.45038252606014</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>49.32950435591259</c:v>
+                  <c:v>134.31214650042355</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>50.946785963395172</c:v>
+                  <c:v>140.30668812047449</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>52.581365520495936</c:v>
+                  <c:v>146.43409395250492</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>54.233061871887685</c:v>
+                  <c:v>152.69444879462628</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>55.901699437494727</c:v>
+                  <c:v>159.08783574862511</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>57.587107932244663</c:v>
+                  <c:v>165.61433628750461</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>59.28912210515513</c:v>
+                  <c:v>172.27403031905209</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>61.007581496073044</c:v>
+                  <c:v>179.06699624573733</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.742330208560119</c:v>
+                  <c:v>185.99331102122198</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64.493216697572095</c:v>
+                  <c:v>193.05305020372847</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>66.26009357071564</c:v>
+                  <c:v>200.24628800650049</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>68.042817401985872</c:v>
+                  <c:v>207.57309734556134</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>69.841248556995211</c:v>
+                  <c:v>215.03354988495965</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>71.655251028797522</c:v>
+                  <c:v>222.62771607967878</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>73.484692283495221</c:v>
+                  <c:v>230.35566521636483</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>75.32944311489355</c:v>
+                  <c:v>238.21746545202208</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>77.189377507530025</c:v>
+                  <c:v>246.21318385080778</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>79.064372507470026</c:v>
+                  <c:v>254.34288641904863</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>80.954308100310357</c:v>
+                  <c:v>262.60663813859315</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>82.859067095882608</c:v>
+                  <c:v>271.0045029986037</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>84.778535019189732</c:v>
+                  <c:v>279.53654402588404</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>86.712600007149916</c:v>
+                  <c:v>288.20282331382936</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>88.661152710755871</c:v>
+                  <c:v>297.00340205008689</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>90.624086202289362</c:v>
+                  <c:v>305.93834054299418</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>92.60129588726052</c:v>
+                  <c:v>315.00769824687512</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>94.592679420766814</c:v>
+                  <c:v>324.21153378625075</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>96.598136627990698</c:v>
+                  <c:v>333.54990497903339</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>98.617569428575763</c:v>
+                  <c:v>343.02286885875378</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>100.65088176464204</c:v>
+                  <c:v>352.63048169587984</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>102.69797953221843</c:v>
+                  <c:v>362.37279901827316</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>104.75877051588542</c:v>
+                  <c:v>372.24987563082692</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>106.83316432643915</c:v>
+                  <c:v>382.26176563433751</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>108.9210723413975</c:v>
+                  <c:v>392.40852244363532</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>111.02240764818582</c:v>
+                  <c:v>402.69019880502714</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>113.13708498984735</c:v>
+                  <c:v>413.10684681307487</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>115.26502071313715</c:v>
+                  <c:v>423.65851792674772</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>117.40613271886579</c:v>
+                  <c:v>434.34526298498059</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>119.56034041436956</c:v>
+                  <c:v>445.16713222166135</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>121.72756466799093</c:v>
+                  <c:v>456.12417528008228</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>123.9077277654623</c:v>
+                  <c:v>467.21644122687519</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>126.10075336809027</c:v>
+                  <c:v>478.44397856545748</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>128.30656647264752</c:v>
+                  <c:v>489.80683524900968</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>130.52509337288336</c:v>
+                  <c:v>501.30505869301021</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>132.75626162256867</c:v>
+                  <c:v>512.93869578734177</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>134.99999999999966</c:v>
+                  <c:v>524.70779290799317</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>137.25623847388462</c:v>
+                  <c:v>536.61239592836921</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>139.52490817054814</c:v>
+                  <c:v>548.65255023023576</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>141.80594134238487</c:v>
+                  <c:v>560.8283007143051</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>144.09927133750494</c:v>
+                  <c:v>573.13969181047867</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>146.40483257051275</c:v>
+                  <c:v>585.5867674877735</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>148.72256049436439</c:v>
+                  <c:v>598.16957126392515</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>151.05239157325468</c:v>
+                  <c:v>610.88814621470055</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>153.39426325648515</c:v>
+                  <c:v>623.74253498292308</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>155.74811395326702</c:v>
+                  <c:v>636.73277978721694</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>158.11388300841853</c:v>
+                  <c:v>649.85892243049545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7737,7 +8455,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Simple model'!$E$1</c:f>
+              <c:f>'Simple model'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8069,60 +8787,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Simple model'!$E$3:$E$102</c:f>
+              <c:f>'Simple model'!$F$3:$F$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>188.51301645002965</c:v>
+                  <c:v>234.33789597249606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.513016450029653</c:v>
+                  <c:v>109.33789597249606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.17968311669631</c:v>
+                  <c:v>67.671229305829371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.513016450029653</c:v>
+                  <c:v>46.837895972496064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.513016450029649</c:v>
+                  <c:v>34.337895972496064</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.846349783362985</c:v>
+                  <c:v>26.004562639162735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.084445021458222</c:v>
+                  <c:v>20.052181686781779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.513016450029653</c:v>
+                  <c:v>15.587895972496067</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.735238672251874</c:v>
+                  <c:v>12.115673750273846</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.513016450029653</c:v>
+                  <c:v>9.3378959724960673</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6948346318478329</c:v>
+                  <c:v>7.0651686997687939</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1796831166963173</c:v>
+                  <c:v>5.1712293058293994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8976318346450327</c:v>
+                  <c:v>3.5686652032652937</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7987307357439342</c:v>
+                  <c:v>2.1950388296389178</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8463497833629816</c:v>
+                  <c:v>1.004562639162728</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0130164500296477</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27772233238258792</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -8387,7 +9105,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Simple model'!$D$1</c:f>
+              <c:f>'Simple model'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8719,60 +9437,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Simple model'!$D$3:$D$102</c:f>
+              <c:f>'Simple model'!$E$3:$E$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>11.328869666961932</c:v>
+                  <c:v>15.605582612541317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.039769954470392</c:v>
+                  <c:v>15.431219336358263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.665399713712601</c:v>
+                  <c:v>15.136191210931784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.222072485902999</c:v>
+                  <c:v>14.71896166914847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7192165970039817</c:v>
+                  <c:v>14.178445546828176</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1631935422458994</c:v>
+                  <c:v>13.513799383961008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5586734571010865</c:v>
+                  <c:v>12.724331690713775</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9092747859706876</c:v>
+                  <c:v>11.809455747921449</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2179087087430389</c:v>
+                  <c:v>10.768661589486898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4869835499703514</c:v>
+                  <c:v>9.6014979668978775</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7185348850345186</c:v>
+                  <c:v>8.3075600387859652</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9143128599083568</c:v>
+                  <c:v>6.886480585676404</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.075843286825954</c:v>
+                  <c:v>5.3379235168072316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2044718536308867</c:v>
+                  <c:v>3.6615789329944448</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3013970145334302</c:v>
+                  <c:v>1.8571592836509314</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3676950374315329</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40433946112584351</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -12693,13 +13411,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
@@ -12734,16 +13452,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12770,16 +13488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14132,7 +14850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -17071,15 +17789,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB376B6F-E370-4E78-91D6-205442B82394}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -17087,10 +17805,13 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>Demand!A2</f>
         <v>0</v>
@@ -17100,11 +17821,15 @@
         <v>#N/A</v>
       </c>
       <c r="C2" t="e">
+        <f>Supply!D17</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D2" t="e">
         <f>Supply!E17</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>Demand!A3</f>
         <v>0.1</v>
@@ -17114,11 +17839,15 @@
         <v>50</v>
       </c>
       <c r="C3">
+        <f>Supply!D18</f>
+        <v>52.256361855851836</v>
+      </c>
+      <c r="D3">
         <f>Supply!E18</f>
         <v>3.408046553109545</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>Demand!A4</f>
         <v>0.2</v>
@@ -17128,11 +17857,15 @@
         <v>25</v>
       </c>
       <c r="C4">
+        <f>Supply!D19</f>
+        <v>27.683281572999746</v>
+      </c>
+      <c r="D4">
         <f>Supply!E19</f>
         <v>4.0528732092183697</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>Demand!A5</f>
         <v>0.30000000000000004</v>
@@ -17142,11 +17875,15 @@
         <v>16.666666666666664</v>
       </c>
       <c r="C5">
+        <f>Supply!D20</f>
+        <v>19.636205868970524</v>
+      </c>
+      <c r="D5">
         <f>Supply!E20</f>
         <v>4.4852415034797888</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>Demand!A6</f>
         <v>0.4</v>
@@ -17156,11 +17893,15 @@
         <v>12.5</v>
       </c>
       <c r="C6">
+        <f>Supply!D21</f>
+        <v>15.690977538166994</v>
+      </c>
+      <c r="D6">
         <f>Supply!E21</f>
         <v>4.8197056566063967</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>Demand!A7</f>
         <v>0.5</v>
@@ -17170,11 +17911,15 @@
         <v>10</v>
       </c>
       <c r="C7">
+        <f>Supply!D22</f>
+        <v>13.374047951142096</v>
+      </c>
+      <c r="D7">
         <f>Supply!E22</f>
         <v>5.0962182595375394</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Demand!A8</f>
         <v>0.6</v>
@@ -17184,11 +17929,15 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="C8">
+        <f>Supply!D23</f>
+        <v>11.864730480992588</v>
+      </c>
+      <c r="D8">
         <f>Supply!E23</f>
         <v>5.3338811084436655</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>Demand!A9</f>
         <v>0.7</v>
@@ -17198,11 +17947,15 @@
         <v>7.1428571428571432</v>
       </c>
       <c r="C9">
+        <f>Supply!D24</f>
+        <v>10.813002452294658</v>
+      </c>
+      <c r="D9">
         <f>Supply!E24</f>
         <v>5.543448644462913</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>Demand!A10</f>
         <v>0.79999999999999993</v>
@@ -17212,11 +17965,15 @@
         <v>6.2500000000000009</v>
       </c>
       <c r="C10">
+        <f>Supply!D25</f>
+        <v>10.044733192202056</v>
+      </c>
+      <c r="D10">
         <f>Supply!E25</f>
         <v>5.7316282590551877</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>Demand!A11</f>
         <v>0.89999999999999991</v>
@@ -17226,11 +17983,15 @@
         <v>5.5555555555555562</v>
       </c>
       <c r="C11">
+        <f>Supply!D26</f>
+        <v>9.4636889301513385</v>
+      </c>
+      <c r="D11">
         <f>Supply!E26</f>
         <v>5.9029097845457148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Demand!A12</f>
         <v>0.99999999999999989</v>
@@ -17240,11 +18001,15 @@
         <v>5.0000000000000009</v>
       </c>
       <c r="C12">
+        <f>Supply!D27</f>
+        <v>9.0124418298585329</v>
+      </c>
+      <c r="D12">
         <f>Supply!E27</f>
         <v>6.060459013848825</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>Demand!A13</f>
         <v>1.0999999999999999</v>
@@ -17254,11 +18019,15 @@
         <v>4.5454545454545459</v>
       </c>
       <c r="C13">
+        <f>Supply!D28</f>
+        <v>8.6546511500677088</v>
+      </c>
+      <c r="D13">
         <f>Supply!E28</f>
         <v>6.2065990382177985</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>Demand!A14</f>
         <v>1.2</v>
@@ -17268,11 +18037,15 @@
         <v>4.166666666666667</v>
       </c>
       <c r="C14">
+        <f>Supply!D29</f>
+        <v>8.3662292805633669</v>
+      </c>
+      <c r="D14">
         <f>Supply!E29</f>
         <v>6.3430893647398081</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>Demand!A15</f>
         <v>1.3</v>
@@ -17282,11 +18055,15 @@
         <v>3.8461538461538458</v>
       </c>
       <c r="C15">
+        <f>Supply!D30</f>
+        <v>8.1305989968045136</v>
+      </c>
+      <c r="D15">
         <f>Supply!E30</f>
         <v>6.4712973629619475</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>Demand!A16</f>
         <v>1.4000000000000001</v>
@@ -17296,11 +18073,15 @@
         <v>3.5714285714285712</v>
       </c>
       <c r="C16">
+        <f>Supply!D31</f>
+        <v>7.935991486505527</v>
+      </c>
+      <c r="D16">
         <f>Supply!E31</f>
         <v>6.5923085696474857</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>Demand!A17</f>
         <v>1.5000000000000002</v>
@@ -17310,11 +18091,15 @@
         <v>3.333333333333333</v>
       </c>
       <c r="C17">
+        <f>Supply!D32</f>
+        <v>7.7738301602870452</v>
+      </c>
+      <c r="D17">
         <f>Supply!E32</f>
         <v>6.7070004157113363</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>Demand!A18</f>
         <v>1.6000000000000003</v>
@@ -17324,11 +18109,15 @@
         <v>3.1249999999999996</v>
       </c>
       <c r="C18">
+        <f>Supply!D33</f>
+        <v>7.6377237117036714</v>
+      </c>
+      <c r="D18">
         <f>Supply!E33</f>
         <v>6.816093106219089</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>Demand!A19</f>
         <v>1.7000000000000004</v>
@@ -17338,11 +18127,15 @@
         <v>2.9411764705882346</v>
       </c>
       <c r="C19">
+        <f>Supply!D34</f>
+        <v>7.5228166595863932</v>
+      </c>
+      <c r="D19">
         <f>Supply!E34</f>
         <v>6.9201857021326356</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>Demand!A20</f>
         <v>1.8000000000000005</v>
@@ -17352,11 +18145,15 @@
         <v>2.7777777777777772</v>
       </c>
       <c r="C20">
+        <f>Supply!D35</f>
+        <v>7.4253577932266772</v>
+      </c>
+      <c r="D20">
         <f>Supply!E35</f>
         <v>7.0197823150009437</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>Demand!A21</f>
         <v>1.9000000000000006</v>
@@ -17366,11 +18163,15 @@
         <v>2.6315789473684204</v>
       </c>
       <c r="C21">
+        <f>Supply!D36</f>
+        <v>7.342405882279988</v>
+      </c>
+      <c r="D21">
         <f>Supply!E36</f>
         <v>7.1153115162726817</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>Demand!A22</f>
         <v>2.0000000000000004</v>
@@ -17380,11 +18181,15 @@
         <v>2.4999999999999996</v>
       </c>
       <c r="C22">
+        <f>Supply!D37</f>
+        <v>7.2716243726023038</v>
+      </c>
+      <c r="D22">
         <f>Supply!E37</f>
         <v>7.2071409794513972</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>Demand!A23</f>
         <v>2.1000000000000005</v>
@@ -17394,11 +18199,15 @@
         <v>2.3809523809523805</v>
       </c>
       <c r="C23">
+        <f>Supply!D38</f>
+        <v>7.2111352464625771</v>
+      </c>
+      <c r="D23">
         <f>Supply!E38</f>
         <v>7.2955887031143609</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>Demand!A24</f>
         <v>2.2000000000000006</v>
@@ -17408,11 +18217,15 @@
         <v>2.272727272727272</v>
       </c>
       <c r="C24">
+        <f>Supply!D39</f>
+        <v>7.1594131118782691</v>
+      </c>
+      <c r="D24">
         <f>Supply!E39</f>
         <v>7.3809317362176516</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>Demand!A25</f>
         <v>2.3000000000000007</v>
@@ -17422,11 +18235,15 @@
         <v>2.1739130434782603</v>
       </c>
       <c r="C25">
+        <f>Supply!D40</f>
+        <v>7.1152071997951012</v>
+      </c>
+      <c r="D25">
         <f>Supply!E40</f>
         <v>7.4634130486035639</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>Demand!A26</f>
         <v>2.4000000000000008</v>
@@ -17436,11 +18253,15 @@
         <v>2.0833333333333326</v>
       </c>
       <c r="C26">
+        <f>Supply!D41</f>
+        <v>7.0774830736787138</v>
+      </c>
+      <c r="D26">
         <f>Supply!E41</f>
         <v>7.5432470036466697</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>Demand!A27</f>
         <v>2.5000000000000009</v>
@@ -17450,11 +18271,15 @@
         <v>1.9999999999999993</v>
       </c>
       <c r="C27">
+        <f>Supply!D42</f>
+        <v>7.0453784915222863</v>
+      </c>
+      <c r="D27">
         <f>Supply!E42</f>
         <v>7.6206237632367886</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>Demand!A28</f>
         <v>2.600000000000001</v>
@@ -17464,11 +18289,15 @@
         <v>1.9230769230769225</v>
       </c>
       <c r="C28">
+        <f>Supply!D43</f>
+        <v>7.0181695800696025</v>
+      </c>
+      <c r="D28">
         <f>Supply!E43</f>
         <v>7.6957128673326949</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>Demand!A29</f>
         <v>2.7000000000000011</v>
@@ -17478,11 +18307,15 @@
         <v>1.8518518518518512</v>
       </c>
       <c r="C29">
+        <f>Supply!D44</f>
+        <v>6.9952446253096907</v>
+      </c>
+      <c r="D29">
         <f>Supply!E44</f>
         <v>7.7686661682436124</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>Demand!A30</f>
         <v>2.8000000000000012</v>
@@ -17492,11 +18325,15 @@
         <v>1.7857142857142849</v>
       </c>
       <c r="C30">
+        <f>Supply!D45</f>
+        <v>6.976083558200818</v>
+      </c>
+      <c r="D30">
         <f>Supply!E45</f>
         <v>7.8396202553182013</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>Demand!A31</f>
         <v>2.9000000000000012</v>
@@ -17506,11 +18343,15 @@
         <v>1.724137931034482</v>
       </c>
       <c r="C31">
+        <f>Supply!D46</f>
+        <v>6.9602417479111178</v>
+      </c>
+      <c r="D31">
         <f>Supply!E46</f>
         <v>7.9086984734074193</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>Demand!A32</f>
         <v>3.0000000000000013</v>
@@ -17520,11 +18361,15 @@
         <v>1.6666666666666659</v>
       </c>
       <c r="C32">
+        <f>Supply!D47</f>
+        <v>6.9473370874270266</v>
+      </c>
+      <c r="D32">
         <f>Supply!E47</f>
         <v>7.9760126146901289</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>Demand!A33</f>
         <v>3.1000000000000014</v>
@@ -17534,11 +18379,15 @@
         <v>1.6129032258064508</v>
       </c>
       <c r="C33">
+        <f>Supply!D48</f>
+        <v>6.9370396202316087</v>
+      </c>
+      <c r="D33">
         <f>Supply!E48</f>
         <v>8.0416643457463319</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>Demand!A34</f>
         <v>3.2000000000000015</v>
@@ -17548,11 +18397,15 @@
         <v>1.5624999999999993</v>
       </c>
       <c r="C34">
+        <f>Supply!D49</f>
+        <v>6.9290631459994945</v>
+      </c>
+      <c r="D34">
         <f>Supply!E49</f>
         <v>8.1057464184367376</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>Demand!A35</f>
         <v>3.3000000000000016</v>
@@ -17562,11 +18415,15 @@
         <v>1.5151515151515145</v>
       </c>
       <c r="C35">
+        <f>Supply!D50</f>
+        <v>6.9231583805955168</v>
+      </c>
+      <c r="D35">
         <f>Supply!E50</f>
         <v>8.1683437030143793</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>Demand!A36</f>
         <v>3.4000000000000017</v>
@@ -17576,11 +18433,15 @@
         <v>1.4705882352941169</v>
       </c>
       <c r="C36">
+        <f>Supply!D51</f>
+        <v>6.9191073464331385</v>
+      </c>
+      <c r="D36">
         <f>Supply!E51</f>
         <v>8.2295340741162324</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>Demand!A37</f>
         <v>3.5000000000000018</v>
@@ -17590,11 +18451,15 @@
         <v>1.4285714285714279</v>
       </c>
       <c r="C37">
+        <f>Supply!D52</f>
+        <v>6.9167187439435951</v>
+      </c>
+      <c r="D37">
         <f>Supply!E52</f>
         <v>8.2893891742600445</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>Demand!A38</f>
         <v>3.6000000000000019</v>
@@ -17604,11 +18469,15 @@
         <v>1.3888888888888882</v>
       </c>
       <c r="C38">
+        <f>Supply!D53</f>
+        <v>6.9158241108051772</v>
+      </c>
+      <c r="D38">
         <f>Supply!E53</f>
         <v>8.3479750747693942</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>Demand!A39</f>
         <v>3.700000000000002</v>
@@ -17618,11 +18487,15 @@
         <v>1.3513513513513506</v>
       </c>
       <c r="C39">
+        <f>Supply!D54</f>
+        <v>6.9162746177902932</v>
+      </c>
+      <c r="D39">
         <f>Supply!E54</f>
         <v>8.4053528503504857</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>Demand!A40</f>
         <v>3.800000000000002</v>
@@ -17632,11 +18505,15 @@
         <v>1.3157894736842097</v>
       </c>
       <c r="C40">
+        <f>Supply!D55</f>
+        <v>6.9179383822275069</v>
+      </c>
+      <c r="D40">
         <f>Supply!E55</f>
         <v>8.4615790806122728</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>Demand!A41</f>
         <v>3.9000000000000021</v>
@@ -17646,11 +18523,15 @@
         <v>1.2820512820512813</v>
       </c>
       <c r="C41">
+        <f>Supply!D56</f>
+        <v>6.9206982047429522</v>
+      </c>
+      <c r="D41">
         <f>Supply!E56</f>
         <v>8.5167062894822134</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>Demand!A42</f>
         <v>4.0000000000000018</v>
@@ -17660,11 +18541,15 @@
         <v>1.2499999999999996</v>
       </c>
       <c r="C42">
+        <f>Supply!D57</f>
+        <v>6.924449654019055</v>
+      </c>
+      <c r="D42">
         <f>Supply!E57</f>
         <v>8.5707833315912811</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>Demand!A43</f>
         <v>4.1000000000000014</v>
@@ -17674,11 +18559,15 @@
         <v>1.2195121951219507</v>
       </c>
       <c r="C43">
+        <f>Supply!D58</f>
+        <v>6.9290994391611109</v>
+      </c>
+      <c r="D43">
         <f>Supply!E58</f>
         <v>8.6238557331841488</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>Demand!A44</f>
         <v>4.2000000000000011</v>
@@ -17688,11 +18577,15 @@
         <v>1.1904761904761902</v>
       </c>
       <c r="C44">
+        <f>Supply!D59</f>
+        <v>6.9345640209051478</v>
+      </c>
+      <c r="D44">
         <f>Supply!E59</f>
         <v>8.6759659938770728</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>Demand!A45</f>
         <v>4.3000000000000007</v>
@@ -17702,11 +18595,15 @@
         <v>1.1627906976744184</v>
       </c>
       <c r="C45">
+        <f>Supply!D60</f>
+        <v>6.9407684220849699</v>
+      </c>
+      <c r="D45">
         <f>Supply!E60</f>
         <v>8.7271538545784377</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>Demand!A46</f>
         <v>4.4000000000000004</v>
@@ -17716,11 +18613,15 @@
         <v>1.1363636363636362</v>
       </c>
       <c r="C46">
+        <f>Supply!D61</f>
+        <v>6.9476452050650437</v>
+      </c>
+      <c r="D46">
         <f>Supply!E61</f>
         <v>8.7774565360594181</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>Demand!A47</f>
         <v>4.5</v>
@@ -17730,11 +18631,15 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="C47">
+        <f>Supply!D62</f>
+        <v>6.955133589662891</v>
+      </c>
+      <c r="D47">
         <f>Supply!E62</f>
         <v>8.8269089519792505</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>Demand!A48</f>
         <v>4.5999999999999996</v>
@@ -17744,11 +18649,15 @@
         <v>1.0869565217391306</v>
       </c>
       <c r="C48">
+        <f>Supply!D63</f>
+        <v>6.9631786897524854</v>
+      </c>
+      <c r="D48">
         <f>Supply!E63</f>
         <v>8.875543899603505</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>Demand!A49</f>
         <v>4.6999999999999993</v>
@@ -17758,11 +18667,15 @@
         <v>1.0638297872340428</v>
       </c>
       <c r="C49">
+        <f>Supply!D64</f>
+        <v>6.9717308505049527</v>
+      </c>
+      <c r="D49">
         <f>Supply!E64</f>
         <v>8.9233922309821043</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>Demand!A50</f>
         <v>4.7999999999999989</v>
@@ -17772,11 +18685,15 @@
         <v>1.041666666666667</v>
       </c>
       <c r="C50">
+        <f>Supply!D65</f>
+        <v>6.9807450712743844</v>
+      </c>
+      <c r="D50">
         <f>Supply!E65</f>
         <v>8.970483006959574</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>Demand!A51</f>
         <v>4.8999999999999986</v>
@@ -17786,11 +18703,15 @@
         <v>1.0204081632653064</v>
       </c>
       <c r="C51">
+        <f>Supply!D66</f>
+        <v>6.9901805016214329</v>
+      </c>
+      <c r="D51">
         <f>Supply!E66</f>
         <v>9.0168436360587343</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>Demand!A52</f>
         <v>4.9999999999999982</v>
@@ -17800,11 +18721,15 @@
         <v>1.0000000000000004</v>
       </c>
       <c r="C52">
+        <f>Supply!D67</f>
+        <v>7</v>
+      </c>
+      <c r="D52">
         <f>Supply!E67</f>
         <v>9.0624999999999982</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>Demand!A53</f>
         <v>5.0999999999999979</v>
@@ -17814,11 +18739,15 @@
         <v>0.9803921568627455</v>
       </c>
       <c r="C53">
+        <f>Supply!D68</f>
+        <v>7.0101697463019663</v>
+      </c>
+      <c r="D53">
         <f>Supply!E68</f>
         <v>9.1074765673821574</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>Demand!A54</f>
         <v>5.1999999999999975</v>
@@ -17828,11 +18757,15 @@
         <v>0.96153846153846201</v>
       </c>
       <c r="C54">
+        <f>Supply!D69</f>
+        <v>7.0206589008322728</v>
+      </c>
+      <c r="D54">
         <f>Supply!E69</f>
         <v>9.1517964968500287</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>Demand!A55</f>
         <v>5.2999999999999972</v>
@@ -17842,11 +18775,15 @@
         <v>0.9433962264150948</v>
       </c>
       <c r="C55">
+        <f>Supply!D70</f>
+        <v>7.0314393034270486</v>
+      </c>
+      <c r="D55">
         <f>Supply!E70</f>
         <v>9.195481730903472</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>Demand!A56</f>
         <v>5.3999999999999968</v>
@@ -17856,11 +18793,15 @@
         <v>0.92592592592592649</v>
       </c>
       <c r="C56">
+        <f>Supply!D71</f>
+        <v>7.0424852073755657</v>
+      </c>
+      <c r="D56">
         <f>Supply!E71</f>
         <v>9.2385530813562262</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>Demand!A57</f>
         <v>5.4999999999999964</v>
@@ -17870,11 +18811,15 @@
         <v>0.90909090909090973</v>
       </c>
       <c r="C57">
+        <f>Supply!D72</f>
+        <v>7.0537730435975785</v>
+      </c>
+      <c r="D57">
         <f>Supply!E72</f>
         <v>9.2810303073277822</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>Demand!A58</f>
         <v>5.5999999999999961</v>
@@ -17884,11 +18829,15 @@
         <v>0.89285714285714346</v>
       </c>
       <c r="C58">
+        <f>Supply!D73</f>
+        <v>7.0652812111896237</v>
+      </c>
+      <c r="D58">
         <f>Supply!E73</f>
         <v>9.3229321865438504</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>Demand!A59</f>
         <v>5.6999999999999957</v>
@@ -17898,11 +18847,15 @@
         <v>0.87719298245614097</v>
       </c>
       <c r="C59">
+        <f>Supply!D74</f>
+        <v>7.0769898910098963</v>
+      </c>
+      <c r="D59">
         <f>Supply!E74</f>
         <v>9.3642765806280686</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>Demand!A60</f>
         <v>5.7999999999999954</v>
@@ -17912,11 +18865,15 @@
         <v>0.8620689655172421</v>
       </c>
       <c r="C60">
+        <f>Supply!D75</f>
+        <v>7.0888808794398397</v>
+      </c>
+      <c r="D60">
         <f>Supply!E75</f>
         <v>9.4050804949872582</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>Demand!A61</f>
         <v>5.899999999999995</v>
@@ -17926,11 +18883,15 @@
         <v>0.84745762711864481</v>
       </c>
       <c r="C61">
+        <f>Supply!D76</f>
+        <v>7.100937439856569</v>
+      </c>
+      <c r="D61">
         <f>Supply!E76</f>
         <v>9.4453601338229074</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>Demand!A62</f>
         <v>5.9999999999999947</v>
@@ -17940,11 +18901,15 @@
         <v>0.83333333333333404</v>
       </c>
       <c r="C62">
+        <f>Supply!D77</f>
+        <v>7.113144169685965</v>
+      </c>
+      <c r="D62">
         <f>Supply!E77</f>
         <v>9.4851309507409542</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>Demand!A63</f>
         <v>6.0999999999999943</v>
@@ -17954,11 +18919,15 @@
         <v>0.81967213114754178</v>
       </c>
       <c r="C63">
+        <f>Supply!D78</f>
+        <v>7.1254868811916712</v>
+      </c>
+      <c r="D63">
         <f>Supply!E78</f>
         <v>9.5244076953791552</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>Demand!A64</f>
         <v>6.199999999999994</v>
@@ -17968,11 +18937,15 @@
         <v>0.80645161290322664</v>
       </c>
       <c r="C64">
+        <f>Supply!D79</f>
+        <v>7.1379524943985562</v>
+      </c>
+      <c r="D64">
         <f>Supply!E79</f>
         <v>9.5632044564252379</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>Demand!A65</f>
         <v>6.2999999999999936</v>
@@ -17982,11 +18955,15 @@
         <v>0.79365079365079449</v>
       </c>
       <c r="C65">
+        <f>Supply!D80</f>
+        <v>7.1505289407571659</v>
+      </c>
+      <c r="D65">
         <f>Supply!E80</f>
         <v>9.6015347013585828</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>Demand!A66</f>
         <v>6.3999999999999932</v>
@@ -17996,11 +18973,15 @@
         <v>0.78125000000000078</v>
       </c>
       <c r="C66">
+        <f>Supply!D81</f>
+        <v>7.163205076333985</v>
+      </c>
+      <c r="D66">
         <f>Supply!E81</f>
         <v>9.6394113132127899</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>Demand!A67</f>
         <v>6.4999999999999929</v>
@@ -18010,11 +18991,15 @@
         <v>0.76923076923077005</v>
       </c>
       <c r="C67">
+        <f>Supply!D82</f>
+        <v>7.1759706034654123</v>
+      </c>
+      <c r="D67">
         <f>Supply!E82</f>
         <v>9.6768466246252416</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>Demand!A68</f>
         <v>6.5999999999999925</v>
@@ -18024,11 +19009,15 @@
         <v>0.75757575757575846</v>
       </c>
       <c r="C68">
+        <f>Supply!D83</f>
+        <v>7.1888159999453265</v>
+      </c>
+      <c r="D68">
         <f>Supply!E83</f>
         <v>9.7138524494123697</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>Demand!A69</f>
         <v>6.6999999999999922</v>
@@ -18038,11 +19027,15 @@
         <v>0.74626865671641873</v>
       </c>
       <c r="C69">
+        <f>Supply!D84</f>
+        <v>7.2017324549298962</v>
+      </c>
+      <c r="D69">
         <f>Supply!E84</f>
         <v>9.7504401118849415</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>Demand!A70</f>
         <v>6.7999999999999918</v>
@@ -18052,11 +19045,15 @@
         <v>0.73529411764705965</v>
       </c>
       <c r="C70">
+        <f>Supply!D85</f>
+        <v>7.2147118108418828</v>
+      </c>
+      <c r="D70">
         <f>Supply!E85</f>
         <v>9.7866204740963489</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>Demand!A71</f>
         <v>6.8999999999999915</v>
@@ -18066,11 +19063,15 @@
         <v>0.72463768115942118</v>
       </c>
       <c r="C71">
+        <f>Supply!D86</f>
+        <v>7.2277465106420244</v>
+      </c>
+      <c r="D71">
         <f>Supply!E86</f>
         <v>9.8224039611976828</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>Demand!A72</f>
         <v>6.9999999999999911</v>
@@ -18080,11 +19081,15 @@
         <v>0.71428571428571519</v>
       </c>
       <c r="C72">
+        <f>Supply!D87</f>
+        <v>7.2408295499093747</v>
+      </c>
+      <c r="D72">
         <f>Supply!E87</f>
         <v>9.8578005850565695</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>Demand!A73</f>
         <v>7.0999999999999908</v>
@@ -18094,11 +19099,15 @@
         <v>0.70422535211267701</v>
       </c>
       <c r="C73">
+        <f>Supply!D88</f>
+        <v>7.2539544332370784</v>
+      </c>
+      <c r="D73">
         <f>Supply!E88</f>
         <v>9.8928199662816496</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>Demand!A74</f>
         <v>7.1999999999999904</v>
@@ -18108,11 +19117,15 @@
         <v>0.69444444444444542</v>
       </c>
       <c r="C74">
+        <f>Supply!D89</f>
+        <v>7.2671151345064358</v>
+      </c>
+      <c r="D74">
         <f>Supply!E89</f>
         <v>9.9274713547811331</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>Demand!A75</f>
         <v>7.2999999999999901</v>
@@ -18122,11 +19135,15 @@
         <v>0.68493150684931603</v>
       </c>
       <c r="C75">
+        <f>Supply!D90</f>
+        <v>7.2803060606514292</v>
+      </c>
+      <c r="D75">
         <f>Supply!E90</f>
         <v>9.9617636489719423</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>Demand!A76</f>
         <v>7.3999999999999897</v>
@@ -18136,11 +19153,15 @@
         <v>0.67567567567567666</v>
       </c>
       <c r="C76">
+        <f>Supply!D91</f>
+        <v>7.2935220185690453</v>
+      </c>
+      <c r="D76">
         <f>Supply!E91</f>
         <v>9.9957054137451937</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>Demand!A77</f>
         <v>7.4999999999999893</v>
@@ -18150,11 +19171,15 @@
         <v>0.66666666666666763</v>
       </c>
       <c r="C77">
+        <f>Supply!D92</f>
+        <v>7.3067581848685945</v>
+      </c>
+      <c r="D77">
         <f>Supply!E92</f>
         <v>10.029304897284161</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>Demand!A78</f>
         <v>7.599999999999989</v>
@@ -18164,11 +19189,15 @@
         <v>0.6578947368421062</v>
       </c>
       <c r="C78">
+        <f>Supply!D93</f>
+        <v>7.3200100781865194</v>
+      </c>
+      <c r="D78">
         <f>Supply!E93</f>
         <v>10.062570046822291</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>Demand!A79</f>
         <v>7.6999999999999886</v>
@@ -18178,11 +19207,15 @@
         <v>0.64935064935065034</v>
       </c>
       <c r="C79">
+        <f>Supply!D94</f>
+        <v>7.3332735338225419</v>
+      </c>
+      <c r="D79">
         <f>Supply!E94</f>
         <v>10.095508523421087</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>Demand!A80</f>
         <v>7.7999999999999883</v>
@@ -18192,11 +19225,15 @@
         <v>0.64102564102564197</v>
       </c>
       <c r="C80">
+        <f>Supply!D95</f>
+        <v>7.3465446804787717</v>
+      </c>
+      <c r="D80">
         <f>Supply!E95</f>
         <v>10.128127715840666</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>Demand!A81</f>
         <v>7.8999999999999879</v>
@@ -18206,11 +19243,15 @@
         <v>0.63291139240506422</v>
       </c>
       <c r="C81">
+        <f>Supply!D96</f>
+        <v>7.3598199189063331</v>
+      </c>
+      <c r="D81">
         <f>Supply!E96</f>
         <v>10.160434753569627</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>Demand!A82</f>
         <v>7.9999999999999876</v>
@@ -18220,11 +19261,15 @@
         <v>0.625000000000001</v>
       </c>
       <c r="C82">
+        <f>Supply!D97</f>
+        <v>7.3730959022841871</v>
+      </c>
+      <c r="D82">
         <f>Supply!E97</f>
         <v>10.192436519075073</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>Demand!A83</f>
         <v>8.0999999999999872</v>
@@ -18234,11 +19279,15 @@
         <v>0.61728395061728492</v>
       </c>
       <c r="C83">
+        <f>Supply!D98</f>
+        <v>7.3863695181727893</v>
+      </c>
+      <c r="D83">
         <f>Supply!E98</f>
         <v>10.224139659328628</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>Demand!A84</f>
         <v>8.1999999999999869</v>
@@ -18248,11 +19297,15 @@
         <v>0.6097560975609766</v>
       </c>
       <c r="C84">
+        <f>Supply!D99</f>
+        <v>7.3996378719011204</v>
+      </c>
+      <c r="D84">
         <f>Supply!E99</f>
         <v>10.255550596659594</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>Demand!A85</f>
         <v>8.2999999999999865</v>
@@ -18262,11 +19315,15 @@
         <v>0.60240963855421781</v>
       </c>
       <c r="C85">
+        <f>Supply!D100</f>
+        <v>7.412898271259686</v>
+      </c>
+      <c r="D85">
         <f>Supply!E100</f>
         <v>10.286675538982218</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>Demand!A86</f>
         <v>8.3999999999999861</v>
@@ -18276,11 +19333,15 @@
         <v>0.59523809523809623</v>
       </c>
       <c r="C86">
+        <f>Supply!D101</f>
+        <v>7.4261482123847529</v>
+      </c>
+      <c r="D86">
         <f>Supply!E101</f>
         <v>10.317520489440263</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>Demand!A87</f>
         <v>8.4999999999999858</v>
@@ -18290,11 +19351,15 @@
         <v>0.58823529411764808</v>
       </c>
       <c r="C87">
+        <f>Supply!D102</f>
+        <v>7.4393853667302032</v>
+      </c>
+      <c r="D87">
         <f>Supply!E102</f>
         <v>10.348091255508548</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>Demand!A88</f>
         <v>8.5999999999999854</v>
@@ -18304,11 +19369,15 @@
         <v>0.58139534883721034</v>
       </c>
       <c r="C88">
+        <f>Supply!D103</f>
+        <v>7.4526075690334661</v>
+      </c>
+      <c r="D88">
         <f>Supply!E103</f>
         <v>10.378393457588095</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>Demand!A89</f>
         <v>8.6999999999999851</v>
@@ -18318,11 +19387,15 @@
         <v>0.57471264367816188</v>
       </c>
       <c r="C89">
+        <f>Supply!D104</f>
+        <v>7.4658128061908542</v>
+      </c>
+      <c r="D89">
         <f>Supply!E104</f>
         <v>10.408432537128547</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>Demand!A90</f>
         <v>8.7999999999999847</v>
@@ -18332,11 +19405,15 @@
         <v>0.56818181818181912</v>
       </c>
       <c r="C90">
+        <f>Supply!D105</f>
+        <v>7.4789992069657032</v>
+      </c>
+      <c r="D90">
         <f>Supply!E105</f>
         <v>10.438213764308992</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>Demand!A91</f>
         <v>8.8999999999999844</v>
@@ -18346,11 +19423,15 @@
         <v>0.5617977528089898</v>
       </c>
       <c r="C91">
+        <f>Supply!D106</f>
+        <v>7.4921650324598126</v>
+      </c>
+      <c r="D91">
         <f>Supply!E106</f>
         <v>10.467742245305931</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>Demand!A92</f>
         <v>8.999999999999984</v>
@@ -18360,11 +19441,15 @@
         <v>0.55555555555555658</v>
       </c>
       <c r="C92">
+        <f>Supply!D107</f>
+        <v>7.5053086672851661</v>
+      </c>
+      <c r="D92">
         <f>Supply!E107</f>
         <v>10.497022929174934</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>Demand!A93</f>
         <v>9.0999999999999837</v>
@@ -18374,11 +19459,15 @@
         <v>0.54945054945055039</v>
       </c>
       <c r="C93">
+        <f>Supply!D108</f>
+        <v>7.5184286113786616</v>
+      </c>
+      <c r="D93">
         <f>Supply!E108</f>
         <v>10.526060614370586</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>Demand!A94</f>
         <v>9.1999999999999833</v>
@@ -18388,11 +19477,15 @@
         <v>0.54347826086956619</v>
       </c>
       <c r="C94">
+        <f>Supply!D109</f>
+        <v>7.53152347240776</v>
+      </c>
+      <c r="D94">
         <f>Supply!E109</f>
         <v>10.554859954927482</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>Demand!A95</f>
         <v>9.2999999999999829</v>
@@ -18402,11 +19495,15 @@
         <v>0.5376344086021515</v>
       </c>
       <c r="C95">
+        <f>Supply!D110</f>
+        <v>7.5445919587196801</v>
+      </c>
+      <c r="D95">
         <f>Supply!E110</f>
         <v>10.58342546632335</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>Demand!A96</f>
         <v>9.3999999999999826</v>
@@ -18416,11 +19513,15 @@
         <v>0.53191489361702227</v>
       </c>
       <c r="C96">
+        <f>Supply!D111</f>
+        <v>7.5576328727909274</v>
+      </c>
+      <c r="D96">
         <f>Supply!E111</f>
         <v>10.61176153104392</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>Demand!A97</f>
         <v>9.4999999999999822</v>
@@ -18430,11 +19531,15 @@
         <v>0.52631578947368518</v>
       </c>
       <c r="C97">
+        <f>Supply!D112</f>
+        <v>7.5706451051377917</v>
+      </c>
+      <c r="D97">
         <f>Supply!E112</f>
         <v>10.639872403867662</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>Demand!A98</f>
         <v>9.5999999999999819</v>
@@ -18444,11 +19549,15 @@
         <v>0.52083333333333437</v>
       </c>
       <c r="C98">
+        <f>Supply!D113</f>
+        <v>7.5836276286518398</v>
+      </c>
+      <c r="D98">
         <f>Supply!E113</f>
         <v>10.667762216887326</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>Demand!A99</f>
         <v>9.6999999999999815</v>
@@ -18458,11 +19567,15 @@
         <v>0.51546391752577414</v>
       </c>
       <c r="C99">
+        <f>Supply!D114</f>
+        <v>7.5965794933275674</v>
+      </c>
+      <c r="D99">
         <f>Supply!E114</f>
         <v>10.69543498428396</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>Demand!A100</f>
         <v>9.7999999999999812</v>
@@ -18472,11 +19585,15 @@
         <v>0.51020408163265407</v>
       </c>
       <c r="C100">
+        <f>Supply!D115</f>
+        <v>7.6094998213521894</v>
+      </c>
+      <c r="D100">
         <f>Supply!E115</f>
         <v>10.722894606868049</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>Demand!A101</f>
         <v>9.8999999999999808</v>
@@ -18486,11 +19603,15 @@
         <v>0.50505050505050608</v>
       </c>
       <c r="C101">
+        <f>Supply!D116</f>
+        <v>7.6223878025300182</v>
+      </c>
+      <c r="D101">
         <f>Supply!E116</f>
         <v>10.750144876401349</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>Demand!A102</f>
         <v>9.9999999999999805</v>
@@ -18500,6 +19621,10 @@
         <v>0.500000000000001</v>
       </c>
       <c r="C102">
+        <f>Supply!D117</f>
+        <v>7.6352426900163222</v>
+      </c>
+      <c r="D102">
         <f>Supply!E117</f>
         <v>10.777189479712153</v>
       </c>
@@ -18512,19 +19637,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F88E30-DBC3-4122-966F-18DC9CB03DBD}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -18532,19 +19657,25 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>Demand!A2</f>
         <v>0</v>
@@ -18565,2236 +19696,2666 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>Demand!A3</f>
         <v>0.1</v>
       </c>
       <c r="B3">
-        <f>$H$2/A3</f>
-        <v>200</v>
+        <f t="shared" ref="B3:B34" si="0">$I$2/A3</f>
+        <v>250</v>
       </c>
       <c r="C3">
-        <f>$H$3*(A3^$H$4)</f>
-        <v>0.158113883008419</v>
+        <f>($I$3/A3)+$I$4*A3^((1-$I$5)/$I$5)</f>
+        <v>100.01865206693766</v>
       </c>
       <c r="D3">
-        <f>IF(A3&lt;G7,(H7-C3),0)</f>
-        <v>11.328869666961932</v>
+        <f>($I$4/$I$5)*A3^((1-$I$5)/$I$5)</f>
+        <v>5.6521414962619483E-2</v>
       </c>
       <c r="E3">
-        <f>IF(A3&lt;=G7,(B3-H7),0)</f>
-        <v>188.51301645002965</v>
-      </c>
-      <c r="G3" t="s">
+        <f>IF(A3&lt;K4,(L4-D3),0)</f>
+        <v>15.605582612541317</v>
+      </c>
+      <c r="F3">
+        <f>IF(A3&lt;=K4,(B3-L4),0)</f>
+        <v>234.33789597249606</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>Demand!A4</f>
         <v>0.2</v>
       </c>
       <c r="B4">
-        <f>$H$2/A4</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>125</v>
       </c>
       <c r="C4">
-        <f>$H$3*(A4^$H$4)</f>
-        <v>0.44721359549995809</v>
+        <f t="shared" ref="C4:C67" si="1">($I$3/A4)+$I$4*A4^((1-$I$5)/$I$5)</f>
+        <v>50.076191948078069</v>
       </c>
       <c r="D4">
-        <f>IF(A4&lt;=$G$7,($H$7-C4),0)</f>
-        <v>11.039769954470392</v>
+        <f t="shared" ref="D4:D67" si="2">($I$4/$I$5)*A4^((1-$I$5)/$I$5)</f>
+        <v>0.2308846911456732</v>
       </c>
       <c r="E4">
-        <f>IF(A4&lt;=$G$7,(B4-$H$7),0)</f>
-        <v>88.513016450029653</v>
-      </c>
-      <c r="G4" t="s">
+        <f>IF(A4&lt;=$K$4,($L$4-D4),0)</f>
+        <v>15.431219336358263</v>
+      </c>
+      <c r="F4">
+        <f>IF(A4&lt;=$K$4,(B4-$L$4),0)</f>
+        <v>109.33789597249606</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="H4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>((I2*I5)/I4)^I5</f>
+        <v>1.5962095486084087</v>
+      </c>
+      <c r="L4">
+        <f>(I2^(1-I5))*((I4^I5)/(I5^I5))</f>
+        <v>15.662104027503936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>Demand!A5</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="B5">
-        <f>$H$2/A5</f>
-        <v>66.666666666666657</v>
+        <f t="shared" si="0"/>
+        <v>83.333333333333314</v>
       </c>
       <c r="C5">
-        <f>$H$3*(A5^$H$4)</f>
-        <v>0.82158383625774933</v>
+        <f t="shared" si="1"/>
+        <v>33.506884562802135</v>
       </c>
       <c r="D5">
-        <f>IF(A5&lt;=$G$7,($H$7-C5),0)</f>
-        <v>10.665399713712601</v>
+        <f t="shared" si="2"/>
+        <v>0.52591281657215128</v>
       </c>
       <c r="E5">
-        <f>IF(A5&lt;=$G$7,(B5-$H$7),0)</f>
-        <v>55.17968311669631</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <f>IF(A5&lt;=$K$4,($L$4-D5),0)</f>
+        <v>15.136191210931784</v>
+      </c>
+      <c r="F5">
+        <f>IF(A5&lt;=$K$4,(B5-$L$4),0)</f>
+        <v>67.671229305829371</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>0.33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>Demand!A6</f>
         <v>0.4</v>
       </c>
       <c r="B6">
-        <f>$H$2/A6</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
       <c r="C6">
-        <f>$H$3*(A6^$H$4)</f>
-        <v>1.264911064067352</v>
+        <f t="shared" si="1"/>
+        <v>25.311236978257305</v>
       </c>
       <c r="D6">
-        <f>IF(A6&lt;=$G$7,($H$7-C6),0)</f>
-        <v>10.222072485902999</v>
+        <f t="shared" si="2"/>
+        <v>0.94314235835546667</v>
       </c>
       <c r="E6">
-        <f>IF(A6&lt;=$G$7,(B6-$H$7),0)</f>
-        <v>38.513016450029653</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f>IF(A6&lt;=$K$4,($L$4-D6),0)</f>
+        <v>14.71896166914847</v>
+      </c>
+      <c r="F6">
+        <f>IF(A6&lt;=$K$4,(B6-$L$4),0)</f>
+        <v>46.837895972496064</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>Demand!A7</f>
         <v>0.5</v>
       </c>
       <c r="B7">
-        <f>$H$2/A7</f>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="C7">
-        <f>$H$3*(A7^$H$4)</f>
-        <v>1.7677669529663689</v>
+        <f t="shared" si="1"/>
+        <v>20.489607298623</v>
       </c>
       <c r="D7">
-        <f>IF(A7&lt;=$G$7,($H$7-C7),0)</f>
-        <v>9.7192165970039817</v>
+        <f t="shared" si="2"/>
+        <v>1.4836584806757602</v>
       </c>
       <c r="E7">
-        <f>IF(A7&lt;=$G$7,(B7-$H$7),0)</f>
-        <v>28.513016450029649</v>
-      </c>
-      <c r="G7">
-        <f>(H2/H3)^(1/(1+H4))</f>
-        <v>1.7411011265922482</v>
-      </c>
-      <c r="H7">
-        <f>H3*((H2/H3)^(H4/(1+H4)))</f>
-        <v>11.486983549970351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f>IF(A7&lt;=$K$4,($L$4-D7),0)</f>
+        <v>14.178445546828176</v>
+      </c>
+      <c r="F7">
+        <f>IF(A7&lt;=$K$4,(B7-$L$4),0)</f>
+        <v>34.337895972496064</v>
+      </c>
+      <c r="K7">
+        <f>((I2-I3)/I4)^I5</f>
+        <v>1.9443310733884871</v>
+      </c>
+      <c r="L7">
+        <f>(I2*(I4^I5))/((I2-I3)^I5)</f>
+        <v>12.857892538039419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Demand!A8</f>
         <v>0.6</v>
       </c>
       <c r="B8">
-        <f>$H$2/A8</f>
-        <v>33.333333333333336</v>
+        <f t="shared" si="0"/>
+        <v>41.666666666666671</v>
       </c>
       <c r="C8">
-        <f>$H$3*(A8^$H$4)</f>
-        <v>2.3237900077244502</v>
+        <f t="shared" si="1"/>
+        <v>17.375607199035834</v>
       </c>
       <c r="D8">
-        <f>IF(A8&lt;=$G$7,($H$7-C8),0)</f>
-        <v>9.1631935422458994</v>
+        <f t="shared" si="2"/>
+        <v>2.1483046435429296</v>
       </c>
       <c r="E8">
-        <f>IF(A8&lt;=$G$7,(B8-$H$7),0)</f>
-        <v>21.846349783362985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f>IF(A8&lt;=$K$4,($L$4-D8),0)</f>
+        <v>13.513799383961008</v>
+      </c>
+      <c r="F8">
+        <f>IF(A8&lt;=$K$4,(B8-$L$4),0)</f>
+        <v>26.004562639162735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>Demand!A9</f>
         <v>0.7</v>
       </c>
       <c r="B9">
-        <f>$H$2/A9</f>
-        <v>28.571428571428573</v>
+        <f t="shared" si="0"/>
+        <v>35.714285714285715</v>
       </c>
       <c r="C9">
-        <f>$H$3*(A9^$H$4)</f>
-        <v>2.928310092869264</v>
+        <f t="shared" si="1"/>
+        <v>15.255179156855039</v>
       </c>
       <c r="D9">
-        <f>IF(A9&lt;=$G$7,($H$7-C9),0)</f>
-        <v>8.5586734571010865</v>
+        <f t="shared" si="2"/>
+        <v>2.9377723367901609</v>
       </c>
       <c r="E9">
-        <f>IF(A9&lt;=$G$7,(B9-$H$7),0)</f>
-        <v>17.084445021458222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f>IF(A9&lt;=$K$4,($L$4-D9),0)</f>
+        <v>12.724331690713775</v>
+      </c>
+      <c r="F9">
+        <f>IF(A9&lt;=$K$4,(B9-$L$4),0)</f>
+        <v>20.052181686781779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>Demand!A10</f>
         <v>0.79999999999999993</v>
       </c>
       <c r="B10">
-        <f>$H$2/A10</f>
-        <v>25.000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>31.250000000000004</v>
       </c>
       <c r="C10">
-        <f>$H$3*(A10^$H$4)</f>
-        <v>3.577708763999663</v>
+        <f t="shared" si="1"/>
+        <v>13.771373932262222</v>
       </c>
       <c r="D10">
-        <f>IF(A10&lt;=$G$7,($H$7-C10),0)</f>
-        <v>7.9092747859706876</v>
+        <f t="shared" si="2"/>
+        <v>3.8526482795824868</v>
       </c>
       <c r="E10">
-        <f>IF(A10&lt;=$G$7,(B10-$H$7),0)</f>
-        <v>13.513016450029653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f>IF(A10&lt;=$K$4,($L$4-D10),0)</f>
+        <v>11.809455747921449</v>
+      </c>
+      <c r="F10">
+        <f>IF(A10&lt;=$K$4,(B10-$L$4),0)</f>
+        <v>15.587895972496067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>Demand!A11</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="B11">
-        <f>$H$2/A11</f>
-        <v>22.222222222222225</v>
+        <f t="shared" si="0"/>
+        <v>27.777777777777782</v>
       </c>
       <c r="C11">
-        <f>$H$3*(A11^$H$4)</f>
-        <v>4.2690748412273116</v>
+        <f t="shared" si="1"/>
+        <v>12.725947115656735</v>
       </c>
       <c r="D11">
-        <f>IF(A11&lt;=$G$7,($H$7-C11),0)</f>
-        <v>7.2179087087430389</v>
+        <f t="shared" si="2"/>
+        <v>4.893442438017038</v>
       </c>
       <c r="E11">
-        <f>IF(A11&lt;=$G$7,(B11-$H$7),0)</f>
-        <v>10.735238672251874</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <f>IF(A11&lt;=$K$4,($L$4-D11),0)</f>
+        <v>10.768661589486898</v>
+      </c>
+      <c r="F11">
+        <f>IF(A11&lt;=$K$4,(B11-$L$4),0)</f>
+        <v>12.115673750273846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Demand!A12</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="B12">
-        <f>$H$2/A12</f>
-        <v>20.000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>25.000000000000004</v>
       </c>
       <c r="C12">
-        <f>$H$3*(A12^$H$4)</f>
-        <v>4.9999999999999991</v>
+        <f t="shared" si="1"/>
+        <v>12.000000000000002</v>
       </c>
       <c r="D12">
-        <f>IF(A12&lt;=$G$7,($H$7-C12),0)</f>
-        <v>6.4869835499703514</v>
+        <f t="shared" si="2"/>
+        <v>6.0606060606060588</v>
       </c>
       <c r="E12">
-        <f>IF(A12&lt;=$G$7,(B12-$H$7),0)</f>
-        <v>8.513016450029653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <f>IF(A12&lt;=$K$4,($L$4-D12),0)</f>
+        <v>9.6014979668978775</v>
+      </c>
+      <c r="F12">
+        <f>IF(A12&lt;=$K$4,(B12-$L$4),0)</f>
+        <v>9.3378959724960673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>Demand!A13</f>
         <v>1.0999999999999999</v>
       </c>
       <c r="B13">
-        <f>$H$2/A13</f>
-        <v>18.181818181818183</v>
+        <f t="shared" si="0"/>
+        <v>22.72727272727273</v>
       </c>
       <c r="C13">
-        <f>$H$3*(A13^$H$4)</f>
-        <v>5.768448664935832</v>
+        <f t="shared" si="1"/>
+        <v>11.517908607186023</v>
       </c>
       <c r="D13">
-        <f>IF(A13&lt;=$G$7,($H$7-C13),0)</f>
-        <v>5.7185348850345186</v>
+        <f t="shared" si="2"/>
+        <v>7.354543988717972</v>
       </c>
       <c r="E13">
-        <f>IF(A13&lt;=$G$7,(B13-$H$7),0)</f>
-        <v>6.6948346318478329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <f>IF(A13&lt;=$K$4,($L$4-D13),0)</f>
+        <v>8.3075600387859652</v>
+      </c>
+      <c r="F13">
+        <f>IF(A13&lt;=$K$4,(B13-$L$4),0)</f>
+        <v>7.0651686997687939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>Demand!A14</f>
         <v>1.2</v>
       </c>
       <c r="B14">
-        <f>$H$2/A14</f>
-        <v>16.666666666666668</v>
+        <f t="shared" si="0"/>
+        <v>20.833333333333336</v>
       </c>
       <c r="C14">
-        <f>$H$3*(A14^$H$4)</f>
-        <v>6.5726706900619938</v>
+        <f t="shared" si="1"/>
+        <v>11.229289069136421</v>
       </c>
       <c r="D14">
-        <f>IF(A14&lt;=$G$7,($H$7-C14),0)</f>
-        <v>4.9143128599083568</v>
+        <f t="shared" si="2"/>
+        <v>8.7756234418275323</v>
       </c>
       <c r="E14">
-        <f>IF(A14&lt;=$G$7,(B14-$H$7),0)</f>
-        <v>5.1796831166963173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f>IF(A14&lt;=$K$4,($L$4-D14),0)</f>
+        <v>6.886480585676404</v>
+      </c>
+      <c r="F14">
+        <f>IF(A14&lt;=$K$4,(B14-$L$4),0)</f>
+        <v>5.1712293058293994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>Demand!A15</f>
         <v>1.3</v>
       </c>
       <c r="B15">
-        <f>$H$2/A15</f>
-        <v>15.384615384615383</v>
+        <f t="shared" si="0"/>
+        <v>19.23076923076923</v>
       </c>
       <c r="C15">
-        <f>$H$3*(A15^$H$4)</f>
-        <v>7.4111402631443966</v>
+        <f t="shared" si="1"/>
+        <v>11.099287260837604</v>
       </c>
       <c r="D15">
-        <f>IF(A15&lt;=$G$7,($H$7-C15),0)</f>
-        <v>4.075843286825954</v>
+        <f t="shared" si="2"/>
+        <v>10.324180510696705</v>
       </c>
       <c r="E15">
-        <f>IF(A15&lt;=$G$7,(B15-$H$7),0)</f>
-        <v>3.8976318346450327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f>IF(A15&lt;=$K$4,($L$4-D15),0)</f>
+        <v>5.3379235168072316</v>
+      </c>
+      <c r="F15">
+        <f>IF(A15&lt;=$K$4,(B15-$L$4),0)</f>
+        <v>3.5686652032652937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>Demand!A16</f>
         <v>1.4000000000000001</v>
       </c>
       <c r="B16">
-        <f>$H$2/A16</f>
-        <v>14.285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>17.857142857142854</v>
       </c>
       <c r="C16">
-        <f>$H$3*(A16^$H$4)</f>
-        <v>8.2825116963394638</v>
+        <f t="shared" si="1"/>
+        <v>11.103030424045274</v>
       </c>
       <c r="D16">
-        <f>IF(A16&lt;=$G$7,($H$7-C16),0)</f>
-        <v>3.2044718536308867</v>
+        <f t="shared" si="2"/>
+        <v>12.000525094509491</v>
       </c>
       <c r="E16">
-        <f>IF(A16&lt;=$G$7,(B16-$H$7),0)</f>
-        <v>2.7987307357439342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <f>IF(A16&lt;=$K$4,($L$4-D16),0)</f>
+        <v>3.6615789329944448</v>
+      </c>
+      <c r="F16">
+        <f>IF(A16&lt;=$K$4,(B16-$L$4),0)</f>
+        <v>2.1950388296389178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>Demand!A17</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="B17">
-        <f>$H$2/A17</f>
-        <v>13.333333333333332</v>
+        <f t="shared" si="0"/>
+        <v>16.666666666666664</v>
       </c>
       <c r="C17">
-        <f>$H$3*(A17^$H$4)</f>
-        <v>9.1855865354369204</v>
+        <f t="shared" si="1"/>
+        <v>11.222298432138157</v>
       </c>
       <c r="D17">
-        <f>IF(A17&lt;=$G$7,($H$7-C17),0)</f>
-        <v>2.3013970145334302</v>
+        <f t="shared" si="2"/>
+        <v>13.804944743853005</v>
       </c>
       <c r="E17">
-        <f>IF(A17&lt;=$G$7,(B17-$H$7),0)</f>
-        <v>1.8463497833629816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <f>IF(A17&lt;=$K$4,($L$4-D17),0)</f>
+        <v>1.8571592836509314</v>
+      </c>
+      <c r="F17">
+        <f>IF(A17&lt;=$K$4,(B17-$L$4),0)</f>
+        <v>1.004562639162728</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>Demand!A18</f>
         <v>1.6000000000000003</v>
       </c>
       <c r="B18">
-        <f>$H$2/A18</f>
-        <v>12.499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>15.624999999999996</v>
       </c>
       <c r="C18">
-        <f>$H$3*(A18^$H$4)</f>
-        <v>10.119288512538818</v>
+        <f t="shared" si="1"/>
+        <v>11.443443544807868</v>
       </c>
       <c r="D18">
-        <f>IF(A18&lt;=$G$7,($H$7-C18),0)</f>
-        <v>1.3676950374315329</v>
+        <f t="shared" si="2"/>
+        <v>15.737707711538997</v>
       </c>
       <c r="E18">
-        <f>IF(A18&lt;=$G$7,(B18-$H$7),0)</f>
-        <v>1.0130164500296477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <f>IF(A18&lt;=$K$4,($L$4-D18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>IF(A18&lt;=$K$4,(B18-$L$4),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>Demand!A19</f>
         <v>1.7000000000000004</v>
       </c>
       <c r="B19">
-        <f>$H$2/A19</f>
-        <v>11.764705882352938</v>
+        <f t="shared" si="0"/>
+        <v>14.705882352941172</v>
       </c>
       <c r="C19">
-        <f>$H$3*(A19^$H$4)</f>
-        <v>11.082644088844507</v>
+        <f t="shared" si="1"/>
+        <v>11.756044528321144</v>
       </c>
       <c r="D19">
-        <f>IF(A19&lt;=$G$7,($H$7-C19),0)</f>
-        <v>0.40433946112584351</v>
+        <f t="shared" si="2"/>
+        <v>17.799065415589926</v>
       </c>
       <c r="E19">
-        <f>IF(A19&lt;=$G$7,(B19-$H$7),0)</f>
-        <v>0.27772233238258792</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <f>IF(A19&lt;=$K$4,($L$4-D19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>IF(A19&lt;=$K$4,(B19-$L$4),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>Demand!A20</f>
         <v>1.8000000000000005</v>
       </c>
       <c r="B20">
-        <f>$H$2/A20</f>
-        <v>11.111111111111109</v>
+        <f t="shared" si="0"/>
+        <v>13.888888888888886</v>
       </c>
       <c r="C20">
-        <f>$H$3*(A20^$H$4)</f>
-        <v>12.074767078498869</v>
+        <f t="shared" si="1"/>
+        <v>12.152009526267509</v>
       </c>
       <c r="D20">
-        <f>IF(A20&lt;=$G$7,($H$7-C20),0)</f>
+        <f t="shared" si="2"/>
+        <v>19.989254456702891</v>
+      </c>
+      <c r="E20">
+        <f>IF(A20&lt;=$K$4,($L$4-D20),0)</f>
         <v>0</v>
       </c>
-      <c r="E20">
-        <f>IF(A20&lt;=$G$7,(B20-$H$7),0)</f>
+      <c r="F20">
+        <f>IF(A20&lt;=$K$4,(B20-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>Demand!A21</f>
         <v>1.9000000000000006</v>
       </c>
       <c r="B21">
-        <f>$H$2/A21</f>
-        <v>10.526315789473681</v>
+        <f t="shared" si="0"/>
+        <v>13.157894736842101</v>
       </c>
       <c r="C21">
-        <f>$H$3*(A21^$H$4)</f>
-        <v>13.094846314485714</v>
+        <f t="shared" si="1"/>
+        <v>12.624962331036571</v>
       </c>
       <c r="D21">
-        <f>IF(A21&lt;=$G$7,($H$7-C21),0)</f>
+        <f t="shared" si="2"/>
+        <v>22.308498291817365</v>
+      </c>
+      <c r="E21">
+        <f>IF(A21&lt;=$K$4,($L$4-D21),0)</f>
         <v>0</v>
       </c>
-      <c r="E21">
-        <f>IF(A21&lt;=$G$7,(B21-$H$7),0)</f>
+      <c r="F21">
+        <f>IF(A21&lt;=$K$4,(B21-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>Demand!A22</f>
         <v>2.0000000000000004</v>
       </c>
       <c r="B22">
-        <f>$H$2/A22</f>
-        <v>9.9999999999999982</v>
+        <f t="shared" si="0"/>
+        <v>12.499999999999996</v>
       </c>
       <c r="C22">
-        <f>$H$3*(A22^$H$4)</f>
-        <v>14.142135623730956</v>
+        <f t="shared" si="1"/>
+        <v>13.169812850522913</v>
       </c>
       <c r="D22">
-        <f>IF(A22&lt;=$G$7,($H$7-C22),0)</f>
+        <f t="shared" si="2"/>
+        <v>24.757008637948221</v>
+      </c>
+      <c r="E22">
+        <f>IF(A22&lt;=$K$4,($L$4-D22),0)</f>
         <v>0</v>
       </c>
-      <c r="E22">
-        <f>IF(A22&lt;=$G$7,(B22-$H$7),0)</f>
+      <c r="F22">
+        <f>IF(A22&lt;=$K$4,(B22-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>Demand!A23</f>
         <v>2.1000000000000005</v>
       </c>
       <c r="B23">
-        <f>$H$2/A23</f>
-        <v>9.5238095238095219</v>
+        <f t="shared" si="0"/>
+        <v>11.904761904761902</v>
       </c>
       <c r="C23">
-        <f>$H$3*(A23^$H$4)</f>
-        <v>15.215945583498915</v>
+        <f t="shared" si="1"/>
+        <v>13.782450360180821</v>
       </c>
       <c r="D23">
-        <f>IF(A23&lt;=$G$7,($H$7-C23),0)</f>
+        <f t="shared" si="2"/>
+        <v>27.334986661442606</v>
+      </c>
+      <c r="E23">
+        <f>IF(A23&lt;=$K$4,($L$4-D23),0)</f>
         <v>0</v>
       </c>
-      <c r="E23">
-        <f>IF(A23&lt;=$G$7,(B23-$H$7),0)</f>
+      <c r="F23">
+        <f>IF(A23&lt;=$K$4,(B23-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>Demand!A24</f>
         <v>2.2000000000000006</v>
       </c>
       <c r="B24">
-        <f>$H$2/A24</f>
-        <v>9.0909090909090882</v>
+        <f t="shared" si="0"/>
+        <v>11.36363636363636</v>
       </c>
       <c r="C24">
-        <f>$H$3*(A24^$H$4)</f>
-        <v>16.315636671610466</v>
+        <f t="shared" si="1"/>
+        <v>14.459520463600633</v>
       </c>
       <c r="D24">
-        <f>IF(A24&lt;=$G$7,($H$7-C24),0)</f>
+        <f t="shared" si="2"/>
+        <v>30.042623994382083</v>
+      </c>
+      <c r="E24">
+        <f>IF(A24&lt;=$K$4,($L$4-D24),0)</f>
         <v>0</v>
       </c>
-      <c r="E24">
-        <f>IF(A24&lt;=$G$7,(B24-$H$7),0)</f>
+      <c r="F24">
+        <f>IF(A24&lt;=$K$4,(B24-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>Demand!A25</f>
         <v>2.3000000000000007</v>
       </c>
       <c r="B25">
-        <f>$H$2/A25</f>
-        <v>8.6956521739130412</v>
+        <f t="shared" si="0"/>
+        <v>10.869565217391301</v>
       </c>
       <c r="C25">
-        <f>$H$3*(A25^$H$4)</f>
-        <v>17.440613521318575</v>
+        <f t="shared" si="1"/>
+        <v>15.198260278310833</v>
       </c>
       <c r="D25">
-        <f>IF(A25&lt;=$G$7,($H$7-C25),0)</f>
+        <f t="shared" si="2"/>
+        <v>32.880103610164582</v>
+      </c>
+      <c r="E25">
+        <f>IF(A25&lt;=$K$4,($L$4-D25),0)</f>
         <v>0</v>
       </c>
-      <c r="E25">
-        <f>IF(A25&lt;=$G$7,(B25-$H$7),0)</f>
+      <c r="F25">
+        <f>IF(A25&lt;=$K$4,(B25-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>Demand!A26</f>
         <v>2.4000000000000008</v>
       </c>
       <c r="B26">
-        <f>$H$2/A26</f>
-        <v>8.3333333333333304</v>
+        <f t="shared" si="0"/>
+        <v>10.416666666666663</v>
       </c>
       <c r="C26">
-        <f>$H$3*(A26^$H$4)</f>
-        <v>18.590320061795612</v>
+        <f t="shared" si="1"/>
+        <v>15.996374859121463</v>
       </c>
       <c r="D26">
-        <f>IF(A26&lt;=$G$7,($H$7-C26),0)</f>
+        <f t="shared" si="2"/>
+        <v>35.84760058319636</v>
+      </c>
+      <c r="E26">
+        <f>IF(A26&lt;=$K$4,($L$4-D26),0)</f>
         <v>0</v>
       </c>
-      <c r="E26">
-        <f>IF(A26&lt;=$G$7,(B26-$H$7),0)</f>
+      <c r="F26">
+        <f>IF(A26&lt;=$K$4,(B26-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>Demand!A27</f>
         <v>2.5000000000000009</v>
       </c>
       <c r="B27">
-        <f>$H$2/A27</f>
-        <v>7.9999999999999973</v>
+        <f t="shared" si="0"/>
+        <v>9.9999999999999964</v>
       </c>
       <c r="C27">
-        <f>$H$3*(A27^$H$4)</f>
-        <v>19.764235376052383</v>
+        <f t="shared" si="1"/>
+        <v>16.851943308269579</v>
       </c>
       <c r="D27">
-        <f>IF(A27&lt;=$G$7,($H$7-C27),0)</f>
+        <f t="shared" si="2"/>
+        <v>38.945282752332062</v>
+      </c>
+      <c r="E27">
+        <f>IF(A27&lt;=$K$4,($L$4-D27),0)</f>
         <v>0</v>
       </c>
-      <c r="E27">
-        <f>IF(A27&lt;=$G$7,(B27-$H$7),0)</f>
+      <c r="F27">
+        <f>IF(A27&lt;=$K$4,(B27-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>Demand!A28</f>
         <v>2.600000000000001</v>
       </c>
       <c r="B28">
-        <f>$H$2/A28</f>
-        <v>7.6923076923076898</v>
+        <f t="shared" si="0"/>
+        <v>9.6153846153846114</v>
       </c>
       <c r="C28">
-        <f>$H$3*(A28^$H$4)</f>
-        <v>20.961870145576246</v>
+        <f t="shared" si="1"/>
+        <v>17.763346576376197</v>
       </c>
       <c r="D28">
-        <f>IF(A28&lt;=$G$7,($H$7-C28),0)</f>
+        <f t="shared" si="2"/>
+        <v>42.173311303704097</v>
+      </c>
+      <c r="E28">
+        <f>IF(A28&lt;=$K$4,($L$4-D28),0)</f>
         <v>0</v>
       </c>
-      <c r="E28">
-        <f>IF(A28&lt;=$G$7,(B28-$H$7),0)</f>
+      <c r="F28">
+        <f>IF(A28&lt;=$K$4,(B28-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>Demand!A29</f>
         <v>2.7000000000000011</v>
       </c>
       <c r="B29">
-        <f>$H$2/A29</f>
-        <v>7.4074074074074048</v>
+        <f t="shared" si="0"/>
+        <v>9.259259259259256</v>
       </c>
       <c r="C29">
-        <f>$H$3*(A29^$H$4)</f>
-        <v>22.182763578959243</v>
+        <f t="shared" si="1"/>
+        <v>18.729211327926663</v>
       </c>
       <c r="D29">
-        <f>IF(A29&lt;=$G$7,($H$7-C29),0)</f>
+        <f t="shared" si="2"/>
+        <v>45.531841285524131</v>
+      </c>
+      <c r="E29">
+        <f>IF(A29&lt;=$K$4,($L$4-D29),0)</f>
         <v>0</v>
       </c>
-      <c r="E29">
-        <f>IF(A29&lt;=$G$7,(B29-$H$7),0)</f>
+      <c r="F29">
+        <f>IF(A29&lt;=$K$4,(B29-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>Demand!A30</f>
         <v>2.8000000000000012</v>
       </c>
       <c r="B30">
-        <f>$H$2/A30</f>
-        <v>7.1428571428571397</v>
+        <f t="shared" si="0"/>
+        <v>8.9285714285714253</v>
       </c>
       <c r="C30">
-        <f>$H$3*(A30^$H$4)</f>
-        <v>23.42648074295413</v>
+        <f t="shared" si="1"/>
+        <v>19.748365852902715</v>
       </c>
       <c r="D30">
-        <f>IF(A30&lt;=$G$7,($H$7-C30),0)</f>
+        <f t="shared" si="2"/>
+        <v>49.021022065073169</v>
+      </c>
+      <c r="E30">
+        <f>IF(A30&lt;=$K$4,($L$4-D30),0)</f>
         <v>0</v>
       </c>
-      <c r="E30">
-        <f>IF(A30&lt;=$G$7,(B30-$H$7),0)</f>
+      <c r="F30">
+        <f>IF(A30&lt;=$K$4,(B30-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>Demand!A31</f>
         <v>2.9000000000000012</v>
       </c>
       <c r="B31">
-        <f>$H$2/A31</f>
-        <v>6.8965517241379279</v>
+        <f t="shared" si="0"/>
+        <v>8.6206896551724093</v>
       </c>
       <c r="C31">
-        <f>$H$3*(A31^$H$4)</f>
-        <v>24.692610230593296</v>
+        <f t="shared" si="1"/>
+        <v>20.819805115029759</v>
       </c>
       <c r="D31">
-        <f>IF(A31&lt;=$G$7,($H$7-C31),0)</f>
+        <f t="shared" si="2"/>
+        <v>52.640997736244827</v>
+      </c>
+      <c r="E31">
+        <f>IF(A31&lt;=$K$4,($L$4-D31),0)</f>
         <v>0</v>
       </c>
-      <c r="E31">
-        <f>IF(A31&lt;=$G$7,(B31-$H$7),0)</f>
+      <c r="F31">
+        <f>IF(A31&lt;=$K$4,(B31-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>Demand!A32</f>
         <v>3.0000000000000013</v>
       </c>
       <c r="B32">
-        <f>$H$2/A32</f>
-        <v>6.6666666666666634</v>
+        <f t="shared" si="0"/>
+        <v>8.3333333333333304</v>
       </c>
       <c r="C32">
-        <f>$H$3*(A32^$H$4)</f>
-        <v>25.980762113533181</v>
+        <f t="shared" si="1"/>
+        <v>21.942662803233031</v>
       </c>
       <c r="D32">
-        <f>IF(A32&lt;=$G$7,($H$7-C32),0)</f>
+        <f t="shared" si="2"/>
+        <v>56.391907484544539</v>
+      </c>
+      <c r="E32">
+        <f>IF(A32&lt;=$K$4,($L$4-D32),0)</f>
         <v>0</v>
       </c>
-      <c r="E32">
-        <f>IF(A32&lt;=$G$7,(B32-$H$7),0)</f>
+      <c r="F32">
+        <f>IF(A32&lt;=$K$4,(B32-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>Demand!A33</f>
         <v>3.1000000000000014</v>
       </c>
       <c r="B33">
-        <f>$H$2/A33</f>
-        <v>6.4516129032258034</v>
+        <f t="shared" si="0"/>
+        <v>8.0645161290322545</v>
       </c>
       <c r="C33">
-        <f>$H$3*(A33^$H$4)</f>
-        <v>27.290566135571481</v>
+        <f t="shared" si="1"/>
+        <v>23.116188803655731</v>
       </c>
       <c r="D33">
-        <f>IF(A33&lt;=$G$7,($H$7-C33),0)</f>
+        <f t="shared" si="2"/>
+        <v>60.273885915281305</v>
+      </c>
+      <c r="E33">
+        <f>IF(A33&lt;=$K$4,($L$4-D33),0)</f>
         <v>0</v>
       </c>
-      <c r="E33">
-        <f>IF(A33&lt;=$G$7,(B33-$H$7),0)</f>
+      <c r="F33">
+        <f>IF(A33&lt;=$K$4,(B33-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>Demand!A34</f>
         <v>3.2000000000000015</v>
       </c>
       <c r="B34">
-        <f>$H$2/A34</f>
-        <v>6.2499999999999973</v>
+        <f t="shared" si="0"/>
+        <v>7.8124999999999964</v>
       </c>
       <c r="C34">
-        <f>$H$3*(A34^$H$4)</f>
-        <v>28.621670111997332</v>
+        <f t="shared" si="1"/>
+        <v>24.339730905418303</v>
       </c>
       <c r="D34">
-        <f>IF(A34&lt;=$G$7,($H$7-C34),0)</f>
+        <f t="shared" si="2"/>
+        <v>64.28706334975243</v>
+      </c>
+      <c r="E34">
+        <f>IF(A34&lt;=$K$4,($L$4-D34),0)</f>
         <v>0</v>
       </c>
-      <c r="E34">
-        <f>IF(A34&lt;=$G$7,(B34-$H$7),0)</f>
+      <c r="F34">
+        <f>IF(A34&lt;=$K$4,(B34-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>Demand!A35</f>
         <v>3.3000000000000016</v>
       </c>
       <c r="B35">
-        <f>$H$2/A35</f>
-        <v>6.0606060606060579</v>
+        <f t="shared" ref="B35:B66" si="3">$I$2/A35</f>
+        <v>7.5757575757575717</v>
       </c>
       <c r="C35">
-        <f>$H$3*(A35^$H$4)</f>
-        <v>29.973738505565191</v>
+        <f t="shared" si="1"/>
+        <v>25.612719841145328</v>
       </c>
       <c r="D35">
-        <f>IF(A35&lt;=$G$7,($H$7-C35),0)</f>
+        <f t="shared" si="2"/>
+        <v>68.431566093461512</v>
+      </c>
+      <c r="E35">
+        <f>IF(A35&lt;=$K$4,($L$4-D35),0)</f>
         <v>0</v>
       </c>
-      <c r="E35">
-        <f>IF(A35&lt;=$G$7,(B35-$H$7),0)</f>
+      <c r="F35">
+        <f>IF(A35&lt;=$K$4,(B35-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>Demand!A36</f>
         <v>3.4000000000000017</v>
       </c>
       <c r="B36">
-        <f>$H$2/A36</f>
-        <v>5.8823529411764675</v>
+        <f t="shared" si="3"/>
+        <v>7.3529411764705843</v>
       </c>
       <c r="C36">
-        <f>$H$3*(A36^$H$4)</f>
-        <v>31.346451154795837</v>
+        <f t="shared" si="1"/>
+        <v>26.93465697491969</v>
       </c>
       <c r="D36">
-        <f>IF(A36&lt;=$G$7,($H$7-C36),0)</f>
+        <f t="shared" si="2"/>
+        <v>72.707516679792292</v>
+      </c>
+      <c r="E36">
+        <f>IF(A36&lt;=$K$4,($L$4-D36),0)</f>
         <v>0</v>
       </c>
-      <c r="E36">
-        <f>IF(A36&lt;=$G$7,(B36-$H$7),0)</f>
+      <c r="F36">
+        <f>IF(A36&lt;=$K$4,(B36-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>Demand!A37</f>
         <v>3.5000000000000018</v>
       </c>
       <c r="B37">
-        <f>$H$2/A37</f>
-        <v>5.7142857142857117</v>
+        <f t="shared" si="3"/>
+        <v>7.1428571428571388</v>
       </c>
       <c r="C37">
-        <f>$H$3*(A37^$H$4)</f>
-        <v>32.739502134272016</v>
+        <f t="shared" si="1"/>
+        <v>28.305104107519767</v>
       </c>
       <c r="D37">
-        <f>IF(A37&lt;=$G$7,($H$7-C37),0)</f>
+        <f t="shared" si="2"/>
+        <v>77.115034092051246</v>
+      </c>
+      <c r="E37">
+        <f>IF(A37&lt;=$K$4,($L$4-D37),0)</f>
         <v>0</v>
       </c>
-      <c r="E37">
-        <f>IF(A37&lt;=$G$7,(B37-$H$7),0)</f>
+      <c r="F37">
+        <f>IF(A37&lt;=$K$4,(B37-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>Demand!A38</f>
         <v>3.6000000000000019</v>
       </c>
       <c r="B38">
-        <f>$H$2/A38</f>
-        <v>5.5555555555555527</v>
+        <f t="shared" si="3"/>
+        <v>6.9444444444444411</v>
       </c>
       <c r="C38">
-        <f>$H$3*(A38^$H$4)</f>
-        <v>34.152598729818529</v>
+        <f t="shared" si="1"/>
+        <v>29.723674986680486</v>
       </c>
       <c r="D38">
-        <f>IF(A38&lt;=$G$7,($H$7-C38),0)</f>
+        <f t="shared" si="2"/>
+        <v>81.654233966371848</v>
+      </c>
+      <c r="E38">
+        <f>IF(A38&lt;=$K$4,($L$4-D38),0)</f>
         <v>0</v>
       </c>
-      <c r="E38">
-        <f>IF(A38&lt;=$G$7,(B38-$H$7),0)</f>
+      <c r="F38">
+        <f>IF(A38&lt;=$K$4,(B38-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>Demand!A39</f>
         <v>3.700000000000002</v>
       </c>
       <c r="B39">
-        <f>$H$2/A39</f>
-        <v>5.4054054054054026</v>
+        <f t="shared" si="3"/>
+        <v>6.7567567567567535</v>
       </c>
       <c r="C39">
-        <f>$H$3*(A39^$H$4)</f>
-        <v>35.58546051409202</v>
+        <f t="shared" si="1"/>
+        <v>31.190028199318625</v>
       </c>
       <c r="D39">
-        <f>IF(A39&lt;=$G$7,($H$7-C39),0)</f>
+        <f t="shared" si="2"/>
+        <v>86.325228777624005</v>
+      </c>
+      <c r="E39">
+        <f>IF(A39&lt;=$K$4,($L$4-D39),0)</f>
         <v>0</v>
       </c>
-      <c r="E39">
-        <f>IF(A39&lt;=$G$7,(B39-$H$7),0)</f>
+      <c r="F39">
+        <f>IF(A39&lt;=$K$4,(B39-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>Demand!A40</f>
         <v>3.800000000000002</v>
       </c>
       <c r="B40">
-        <f>$H$2/A40</f>
-        <v>5.2631578947368389</v>
+        <f t="shared" si="3"/>
+        <v>6.5789473684210487</v>
       </c>
       <c r="C40">
-        <f>$H$3*(A40^$H$4)</f>
-        <v>37.037818510274093</v>
+        <f t="shared" si="1"/>
+        <v>32.703861190727487</v>
       </c>
       <c r="D40">
-        <f>IF(A40&lt;=$G$7,($H$7-C40),0)</f>
+        <f t="shared" si="2"/>
+        <v>91.128128010178997</v>
+      </c>
+      <c r="E40">
+        <f>IF(A40&lt;=$K$4,($L$4-D40),0)</f>
         <v>0</v>
       </c>
-      <c r="E40">
-        <f>IF(A40&lt;=$G$7,(B40-$H$7),0)</f>
+      <c r="F40">
+        <f>IF(A40&lt;=$K$4,(B40-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>Demand!A41</f>
         <v>3.9000000000000021</v>
       </c>
       <c r="B41">
-        <f>$H$2/A41</f>
-        <v>5.1282051282051251</v>
+        <f t="shared" si="3"/>
+        <v>6.410256410256407</v>
       </c>
       <c r="C41">
-        <f>$H$3*(A41^$H$4)</f>
-        <v>38.509414433356454</v>
+        <f t="shared" si="1"/>
+        <v>34.264905208097495</v>
       </c>
       <c r="D41">
-        <f>IF(A41&lt;=$G$7,($H$7-C41),0)</f>
+        <f t="shared" si="2"/>
+        <v>96.063038315136154</v>
+      </c>
+      <c r="E41">
+        <f>IF(A41&lt;=$K$4,($L$4-D41),0)</f>
         <v>0</v>
       </c>
-      <c r="E41">
-        <f>IF(A41&lt;=$G$7,(B41-$H$7),0)</f>
+      <c r="F41">
+        <f>IF(A41&lt;=$K$4,(B41-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>Demand!A42</f>
         <v>4.0000000000000018</v>
       </c>
       <c r="B42">
-        <f>$H$2/A42</f>
-        <v>4.9999999999999982</v>
+        <f t="shared" si="3"/>
+        <v>6.2499999999999973</v>
       </c>
       <c r="C42">
-        <f>$H$3*(A42^$H$4)</f>
-        <v>40.000000000000028</v>
+        <f t="shared" si="1"/>
+        <v>35.872921006284656</v>
       </c>
       <c r="D42">
-        <f>IF(A42&lt;=$G$7,($H$7-C42),0)</f>
+        <f t="shared" si="2"/>
+        <v>101.13006365540805</v>
+      </c>
+      <c r="E42">
+        <f>IF(A42&lt;=$K$4,($L$4-D42),0)</f>
         <v>0</v>
       </c>
-      <c r="E42">
-        <f>IF(A42&lt;=$G$7,(B42-$H$7),0)</f>
+      <c r="F42">
+        <f>IF(A42&lt;=$K$4,(B42-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>Demand!A43</f>
         <v>4.1000000000000014</v>
       </c>
       <c r="B43">
-        <f>$H$2/A43</f>
-        <v>4.878048780487803</v>
+        <f t="shared" si="3"/>
+        <v>6.0975609756097544</v>
       </c>
       <c r="C43">
-        <f>$H$3*(A43^$H$4)</f>
-        <v>41.509336299199042</v>
+        <f t="shared" si="1"/>
+        <v>37.527695185406635</v>
       </c>
       <c r="D43">
-        <f>IF(A43&lt;=$G$7,($H$7-C43),0)</f>
+        <f t="shared" si="2"/>
+        <v>106.32930543988708</v>
+      </c>
+      <c r="E43">
+        <f>IF(A43&lt;=$K$4,($L$4-D43),0)</f>
         <v>0</v>
       </c>
-      <c r="E43">
-        <f>IF(A43&lt;=$G$7,(B43-$H$7),0)</f>
+      <c r="F43">
+        <f>IF(A43&lt;=$K$4,(B43-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>Demand!A44</f>
         <v>4.2000000000000011</v>
       </c>
       <c r="B44">
-        <f>$H$2/A44</f>
-        <v>4.761904761904761</v>
+        <f t="shared" si="3"/>
+        <v>5.9523809523809508</v>
       </c>
       <c r="C44">
-        <f>$H$3*(A44^$H$4)</f>
-        <v>43.037193217030335</v>
+        <f t="shared" si="1"/>
+        <v>39.229037054714198</v>
       </c>
       <c r="D44">
-        <f>IF(A44&lt;=$G$7,($H$7-C44),0)</f>
+        <f t="shared" si="2"/>
+        <v>111.66086264776308</v>
+      </c>
+      <c r="E44">
+        <f>IF(A44&lt;=$K$4,($L$4-D44),0)</f>
         <v>0</v>
       </c>
-      <c r="E44">
-        <f>IF(A44&lt;=$G$7,(B44-$H$7),0)</f>
+      <c r="F44">
+        <f>IF(A44&lt;=$K$4,(B44-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>Demand!A45</f>
         <v>4.3000000000000007</v>
       </c>
       <c r="B45">
-        <f>$H$2/A45</f>
-        <v>4.6511627906976738</v>
+        <f t="shared" si="3"/>
+        <v>5.8139534883720918</v>
       </c>
       <c r="C45">
-        <f>$H$3*(A45^$H$4)</f>
-        <v>44.58334890965461</v>
+        <f t="shared" si="1"/>
+        <v>40.97677593684827</v>
       </c>
       <c r="D45">
-        <f>IF(A45&lt;=$G$7,($H$7-C45),0)</f>
+        <f t="shared" si="2"/>
+        <v>117.12483194393768</v>
+      </c>
+      <c r="E45">
+        <f>IF(A45&lt;=$K$4,($L$4-D45),0)</f>
         <v>0</v>
       </c>
-      <c r="E45">
-        <f>IF(A45&lt;=$G$7,(B45-$H$7),0)</f>
+      <c r="F45">
+        <f>IF(A45&lt;=$K$4,(B45-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>Demand!A46</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="B46">
-        <f>$H$2/A46</f>
-        <v>4.545454545454545</v>
+        <f t="shared" si="3"/>
+        <v>5.6818181818181817</v>
       </c>
       <c r="C46">
-        <f>$H$3*(A46^$H$4)</f>
-        <v>46.147589319486677</v>
+        <f t="shared" si="1"/>
+        <v>42.770758842227799</v>
       </c>
       <c r="D46">
-        <f>IF(A46&lt;=$G$7,($H$7-C46),0)</f>
+        <f t="shared" si="2"/>
+        <v>122.72130778636523</v>
+      </c>
+      <c r="E46">
+        <f>IF(A46&lt;=$K$4,($L$4-D46),0)</f>
         <v>0</v>
       </c>
-      <c r="E46">
-        <f>IF(A46&lt;=$G$7,(B46-$H$7),0)</f>
+      <c r="F46">
+        <f>IF(A46&lt;=$K$4,(B46-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>Demand!A47</f>
         <v>4.5</v>
       </c>
       <c r="B47">
-        <f>$H$2/A47</f>
-        <v>4.4444444444444446</v>
+        <f t="shared" si="3"/>
+        <v>5.5555555555555554</v>
       </c>
       <c r="C47">
-        <f>$H$3*(A47^$H$4)</f>
-        <v>47.729707730091953</v>
+        <f t="shared" si="1"/>
+        <v>44.610848455822065</v>
       </c>
       <c r="D47">
-        <f>IF(A47&lt;=$G$7,($H$7-C47),0)</f>
+        <f t="shared" si="2"/>
+        <v>128.45038252606014</v>
+      </c>
+      <c r="E47">
+        <f>IF(A47&lt;=$K$4,($L$4-D47),0)</f>
         <v>0</v>
       </c>
-      <c r="E47">
-        <f>IF(A47&lt;=$G$7,(B47-$H$7),0)</f>
+      <c r="F47">
+        <f>IF(A47&lt;=$K$4,(B47-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>Demand!A48</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="B48">
-        <f>$H$2/A48</f>
-        <v>4.3478260869565224</v>
+        <f t="shared" si="3"/>
+        <v>5.4347826086956523</v>
       </c>
       <c r="C48">
-        <f>$H$3*(A48^$H$4)</f>
-        <v>49.32950435591259</v>
+        <f t="shared" si="1"/>
+        <v>46.496921388618027</v>
       </c>
       <c r="D48">
-        <f>IF(A48&lt;=$G$7,($H$7-C48),0)</f>
+        <f t="shared" si="2"/>
+        <v>134.31214650042355</v>
+      </c>
+      <c r="E48">
+        <f>IF(A48&lt;=$K$4,($L$4-D48),0)</f>
         <v>0</v>
       </c>
-      <c r="E48">
-        <f>IF(A48&lt;=$G$7,(B48-$H$7),0)</f>
+      <c r="F48">
+        <f>IF(A48&lt;=$K$4,(B48-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>Demand!A49</f>
         <v>4.6999999999999993</v>
       </c>
       <c r="B49">
-        <f>$H$2/A49</f>
-        <v>4.255319148936171</v>
+        <f t="shared" si="3"/>
+        <v>5.3191489361702136</v>
       </c>
       <c r="C49">
-        <f>$H$3*(A49^$H$4)</f>
-        <v>50.946785963395172</v>
+        <f t="shared" si="1"/>
+        <v>48.428866654224663</v>
       </c>
       <c r="D49">
-        <f>IF(A49&lt;=$G$7,($H$7-C49),0)</f>
+        <f t="shared" si="2"/>
+        <v>140.30668812047449</v>
+      </c>
+      <c r="E49">
+        <f>IF(A49&lt;=$K$4,($L$4-D49),0)</f>
         <v>0</v>
       </c>
-      <c r="E49">
-        <f>IF(A49&lt;=$G$7,(B49-$H$7),0)</f>
+      <c r="F49">
+        <f>IF(A49&lt;=$K$4,(B49-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>Demand!A50</f>
         <v>4.7999999999999989</v>
       </c>
       <c r="B50">
-        <f>$H$2/A50</f>
-        <v>4.1666666666666679</v>
+        <f t="shared" si="3"/>
+        <v>5.2083333333333348</v>
       </c>
       <c r="C50">
-        <f>$H$3*(A50^$H$4)</f>
-        <v>52.581365520495936</v>
+        <f t="shared" si="1"/>
+        <v>50.406584337659964</v>
       </c>
       <c r="D50">
-        <f>IF(A50&lt;=$G$7,($H$7-C50),0)</f>
+        <f t="shared" si="2"/>
+        <v>146.43409395250492</v>
+      </c>
+      <c r="E50">
+        <f>IF(A50&lt;=$K$4,($L$4-D50),0)</f>
         <v>0</v>
       </c>
-      <c r="E50">
-        <f>IF(A50&lt;=$G$7,(B50-$H$7),0)</f>
+      <c r="F50">
+        <f>IF(A50&lt;=$K$4,(B50-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>Demand!A51</f>
         <v>4.8999999999999986</v>
       </c>
       <c r="B51">
-        <f>$H$2/A51</f>
-        <v>4.0816326530612255</v>
+        <f t="shared" si="3"/>
+        <v>5.1020408163265323</v>
       </c>
       <c r="C51">
-        <f>$H$3*(A51^$H$4)</f>
-        <v>54.233061871887685</v>
+        <f t="shared" si="1"/>
+        <v>52.429984428757287</v>
       </c>
       <c r="D51">
-        <f>IF(A51&lt;=$G$7,($H$7-C51),0)</f>
+        <f t="shared" si="2"/>
+        <v>152.69444879462628</v>
+      </c>
+      <c r="E51">
+        <f>IF(A51&lt;=$K$4,($L$4-D51),0)</f>
         <v>0</v>
       </c>
-      <c r="E51">
-        <f>IF(A51&lt;=$G$7,(B51-$H$7),0)</f>
+      <c r="F51">
+        <f>IF(A51&lt;=$K$4,(B51-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>Demand!A52</f>
         <v>4.9999999999999982</v>
       </c>
       <c r="B52">
-        <f>$H$2/A52</f>
-        <v>4.0000000000000018</v>
+        <f t="shared" si="3"/>
+        <v>5.0000000000000018</v>
       </c>
       <c r="C52">
-        <f>$H$3*(A52^$H$4)</f>
-        <v>55.901699437494727</v>
+        <f t="shared" si="1"/>
+        <v>54.498985797046288</v>
       </c>
       <c r="D52">
-        <f>IF(A52&lt;=$G$7,($H$7-C52),0)</f>
+        <f t="shared" si="2"/>
+        <v>159.08783574862511</v>
+      </c>
+      <c r="E52">
+        <f>IF(A52&lt;=$K$4,($L$4-D52),0)</f>
         <v>0</v>
       </c>
-      <c r="E52">
-        <f>IF(A52&lt;=$G$7,(B52-$H$7),0)</f>
+      <c r="F52">
+        <f>IF(A52&lt;=$K$4,(B52-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>Demand!A53</f>
         <v>5.0999999999999979</v>
       </c>
       <c r="B53">
-        <f>$H$2/A53</f>
-        <v>3.921568627450982</v>
+        <f t="shared" si="3"/>
+        <v>4.9019607843137276</v>
       </c>
       <c r="C53">
-        <f>$H$3*(A53^$H$4)</f>
-        <v>57.587107932244663</v>
+        <f t="shared" si="1"/>
+        <v>56.613515288602017</v>
       </c>
       <c r="D53">
-        <f>IF(A53&lt;=$G$7,($H$7-C53),0)</f>
+        <f t="shared" si="2"/>
+        <v>165.61433628750461</v>
+      </c>
+      <c r="E53">
+        <f>IF(A53&lt;=$K$4,($L$4-D53),0)</f>
         <v>0</v>
       </c>
-      <c r="E53">
-        <f>IF(A53&lt;=$G$7,(B53-$H$7),0)</f>
+      <c r="F53">
+        <f>IF(A53&lt;=$K$4,(B53-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>Demand!A54</f>
         <v>5.1999999999999975</v>
       </c>
       <c r="B54">
-        <f>$H$2/A54</f>
-        <v>3.846153846153848</v>
+        <f t="shared" si="3"/>
+        <v>4.8076923076923102</v>
       </c>
       <c r="C54">
-        <f>$H$3*(A54^$H$4)</f>
-        <v>59.28912210515513</v>
+        <f t="shared" si="1"/>
+        <v>58.773506928364114</v>
       </c>
       <c r="D54">
-        <f>IF(A54&lt;=$G$7,($H$7-C54),0)</f>
+        <f t="shared" si="2"/>
+        <v>172.27403031905209</v>
+      </c>
+      <c r="E54">
+        <f>IF(A54&lt;=$K$4,($L$4-D54),0)</f>
         <v>0</v>
       </c>
-      <c r="E54">
-        <f>IF(A54&lt;=$G$7,(B54-$H$7),0)</f>
+      <c r="F54">
+        <f>IF(A54&lt;=$K$4,(B54-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>Demand!A55</f>
         <v>5.2999999999999972</v>
       </c>
       <c r="B55">
-        <f>$H$2/A55</f>
-        <v>3.7735849056603792</v>
+        <f t="shared" si="3"/>
+        <v>4.7169811320754746</v>
       </c>
       <c r="C55">
-        <f>$H$3*(A55^$H$4)</f>
-        <v>61.007581496073044</v>
+        <f t="shared" si="1"/>
+        <v>60.978901213923514</v>
       </c>
       <c r="D55">
-        <f>IF(A55&lt;=$G$7,($H$7-C55),0)</f>
+        <f t="shared" si="2"/>
+        <v>179.06699624573733</v>
+      </c>
+      <c r="E55">
+        <f>IF(A55&lt;=$K$4,($L$4-D55),0)</f>
         <v>0</v>
       </c>
-      <c r="E55">
-        <f>IF(A55&lt;=$G$7,(B55-$H$7),0)</f>
+      <c r="F55">
+        <f>IF(A55&lt;=$K$4,(B55-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>Demand!A56</f>
         <v>5.3999999999999968</v>
       </c>
       <c r="B56">
-        <f>$H$2/A56</f>
-        <v>3.7037037037037059</v>
+        <f t="shared" si="3"/>
+        <v>4.6296296296296324</v>
       </c>
       <c r="C56">
-        <f>$H$3*(A56^$H$4)</f>
-        <v>62.742330208560119</v>
+        <f t="shared" si="1"/>
+        <v>63.229644488855108</v>
       </c>
       <c r="D56">
-        <f>IF(A56&lt;=$G$7,($H$7-C56),0)</f>
+        <f t="shared" si="2"/>
+        <v>185.99331102122198</v>
+      </c>
+      <c r="E56">
+        <f>IF(A56&lt;=$K$4,($L$4-D56),0)</f>
         <v>0</v>
       </c>
-      <c r="E56">
-        <f>IF(A56&lt;=$G$7,(B56-$H$7),0)</f>
+      <c r="F56">
+        <f>IF(A56&lt;=$K$4,(B56-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>Demand!A57</f>
         <v>5.4999999999999964</v>
       </c>
       <c r="B57">
-        <f>$H$2/A57</f>
-        <v>3.6363636363636389</v>
+        <f t="shared" si="3"/>
+        <v>4.5454545454545485</v>
       </c>
       <c r="C57">
-        <f>$H$3*(A57^$H$4)</f>
-        <v>64.493216697572095</v>
+        <f t="shared" si="1"/>
+        <v>65.525688385412209</v>
       </c>
       <c r="D57">
-        <f>IF(A57&lt;=$G$7,($H$7-C57),0)</f>
+        <f t="shared" si="2"/>
+        <v>193.05305020372847</v>
+      </c>
+      <c r="E57">
+        <f>IF(A57&lt;=$K$4,($L$4-D57),0)</f>
         <v>0</v>
       </c>
-      <c r="E57">
-        <f>IF(A57&lt;=$G$7,(B57-$H$7),0)</f>
+      <c r="F57">
+        <f>IF(A57&lt;=$K$4,(B57-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>Demand!A58</f>
         <v>5.5999999999999961</v>
       </c>
       <c r="B58">
-        <f>$H$2/A58</f>
-        <v>3.5714285714285738</v>
+        <f t="shared" si="3"/>
+        <v>4.4642857142857171</v>
       </c>
       <c r="C58">
-        <f>$H$3*(A58^$H$4)</f>
-        <v>66.26009357071564</v>
+        <f t="shared" si="1"/>
+        <v>67.866989327859457</v>
       </c>
       <c r="D58">
-        <f>IF(A58&lt;=$G$7,($H$7-C58),0)</f>
+        <f t="shared" si="2"/>
+        <v>200.24628800650049</v>
+      </c>
+      <c r="E58">
+        <f>IF(A58&lt;=$K$4,($L$4-D58),0)</f>
         <v>0</v>
       </c>
-      <c r="E58">
-        <f>IF(A58&lt;=$G$7,(B58-$H$7),0)</f>
+      <c r="F58">
+        <f>IF(A58&lt;=$K$4,(B58-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>Demand!A59</f>
         <v>5.6999999999999957</v>
       </c>
       <c r="B59">
-        <f>$H$2/A59</f>
-        <v>3.5087719298245639</v>
+        <f t="shared" si="3"/>
+        <v>4.3859649122807047</v>
       </c>
       <c r="C59">
-        <f>$H$3*(A59^$H$4)</f>
-        <v>68.042817401985872</v>
+        <f t="shared" si="1"/>
+        <v>70.253508088947527</v>
       </c>
       <c r="D59">
-        <f>IF(A59&lt;=$G$7,($H$7-C59),0)</f>
+        <f t="shared" si="2"/>
+        <v>207.57309734556134</v>
+      </c>
+      <c r="E59">
+        <f>IF(A59&lt;=$K$4,($L$4-D59),0)</f>
         <v>0</v>
       </c>
-      <c r="E59">
-        <f>IF(A59&lt;=$G$7,(B59-$H$7),0)</f>
+      <c r="F59">
+        <f>IF(A59&lt;=$K$4,(B59-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>Demand!A60</f>
         <v>5.7999999999999954</v>
       </c>
       <c r="B60">
-        <f>$H$2/A60</f>
-        <v>3.4482758620689684</v>
+        <f t="shared" si="3"/>
+        <v>4.31034482758621</v>
       </c>
       <c r="C60">
-        <f>$H$3*(A60^$H$4)</f>
-        <v>69.841248556995211</v>
+        <f t="shared" si="1"/>
+        <v>72.685209393071176</v>
       </c>
       <c r="D60">
-        <f>IF(A60&lt;=$G$7,($H$7-C60),0)</f>
+        <f t="shared" si="2"/>
+        <v>215.03354988495965</v>
+      </c>
+      <c r="E60">
+        <f>IF(A60&lt;=$K$4,($L$4-D60),0)</f>
         <v>0</v>
       </c>
-      <c r="E60">
-        <f>IF(A60&lt;=$G$7,(B60-$H$7),0)</f>
+      <c r="F60">
+        <f>IF(A60&lt;=$K$4,(B60-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>Demand!A61</f>
         <v>5.899999999999995</v>
       </c>
       <c r="B61">
-        <f>$H$2/A61</f>
-        <v>3.3898305084745792</v>
+        <f t="shared" si="3"/>
+        <v>4.2372881355932241</v>
       </c>
       <c r="C61">
-        <f>$H$3*(A61^$H$4)</f>
-        <v>71.655251028797522</v>
+        <f t="shared" si="1"/>
+        <v>75.162061560531285</v>
       </c>
       <c r="D61">
-        <f>IF(A61&lt;=$G$7,($H$7-C61),0)</f>
+        <f t="shared" si="2"/>
+        <v>222.62771607967878</v>
+      </c>
+      <c r="E61">
+        <f>IF(A61&lt;=$K$4,($L$4-D61),0)</f>
         <v>0</v>
       </c>
-      <c r="E61">
-        <f>IF(A61&lt;=$G$7,(B61-$H$7),0)</f>
+      <c r="F61">
+        <f>IF(A61&lt;=$K$4,(B61-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>Demand!A62</f>
         <v>5.9999999999999947</v>
       </c>
       <c r="B62">
-        <f>$H$2/A62</f>
-        <v>3.3333333333333361</v>
+        <f t="shared" si="3"/>
+        <v>4.1666666666666705</v>
       </c>
       <c r="C62">
-        <f>$H$3*(A62^$H$4)</f>
-        <v>73.484692283495221</v>
+        <f t="shared" si="1"/>
+        <v>77.684036188067068</v>
       </c>
       <c r="D62">
-        <f>IF(A62&lt;=$G$7,($H$7-C62),0)</f>
+        <f t="shared" si="2"/>
+        <v>230.35566521636483</v>
+      </c>
+      <c r="E62">
+        <f>IF(A62&lt;=$K$4,($L$4-D62),0)</f>
         <v>0</v>
       </c>
-      <c r="E62">
-        <f>IF(A62&lt;=$G$7,(B62-$H$7),0)</f>
+      <c r="F62">
+        <f>IF(A62&lt;=$K$4,(B62-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>Demand!A63</f>
         <v>6.0999999999999943</v>
       </c>
       <c r="B63">
-        <f>$H$2/A63</f>
-        <v>3.2786885245901671</v>
+        <f t="shared" si="3"/>
+        <v>4.098360655737709</v>
       </c>
       <c r="C63">
-        <f>$H$3*(A63^$H$4)</f>
-        <v>75.32944311489355</v>
+        <f t="shared" si="1"/>
+        <v>80.251107861462373</v>
       </c>
       <c r="D63">
-        <f>IF(A63&lt;=$G$7,($H$7-C63),0)</f>
+        <f t="shared" si="2"/>
+        <v>238.21746545202208</v>
+      </c>
+      <c r="E63">
+        <f>IF(A63&lt;=$K$4,($L$4-D63),0)</f>
         <v>0</v>
       </c>
-      <c r="E63">
-        <f>IF(A63&lt;=$G$7,(B63-$H$7),0)</f>
+      <c r="F63">
+        <f>IF(A63&lt;=$K$4,(B63-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>Demand!A64</f>
         <v>6.199999999999994</v>
       </c>
       <c r="B64">
-        <f>$H$2/A64</f>
-        <v>3.2258064516129066</v>
+        <f t="shared" si="3"/>
+        <v>4.0322580645161326</v>
       </c>
       <c r="C64">
-        <f>$H$3*(A64^$H$4)</f>
-        <v>77.189377507530025</v>
+        <f t="shared" si="1"/>
+        <v>82.863253896573013</v>
       </c>
       <c r="D64">
-        <f>IF(A64&lt;=$G$7,($H$7-C64),0)</f>
+        <f t="shared" si="2"/>
+        <v>246.21318385080778</v>
+      </c>
+      <c r="E64">
+        <f>IF(A64&lt;=$K$4,($L$4-D64),0)</f>
         <v>0</v>
       </c>
-      <c r="E64">
-        <f>IF(A64&lt;=$G$7,(B64-$H$7),0)</f>
+      <c r="F64">
+        <f>IF(A64&lt;=$K$4,(B64-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>Demand!A65</f>
         <v>6.2999999999999936</v>
       </c>
       <c r="B65">
-        <f>$H$2/A65</f>
-        <v>3.174603174603178</v>
+        <f t="shared" si="3"/>
+        <v>3.9682539682539724</v>
       </c>
       <c r="C65">
-        <f>$H$3*(A65^$H$4)</f>
-        <v>79.064372507470026</v>
+        <f t="shared" si="1"/>
+        <v>85.520454105587646</v>
       </c>
       <c r="D65">
-        <f>IF(A65&lt;=$G$7,($H$7-C65),0)</f>
+        <f t="shared" si="2"/>
+        <v>254.34288641904863</v>
+      </c>
+      <c r="E65">
+        <f>IF(A65&lt;=$K$4,($L$4-D65),0)</f>
         <v>0</v>
       </c>
-      <c r="E65">
-        <f>IF(A65&lt;=$G$7,(B65-$H$7),0)</f>
+      <c r="F65">
+        <f>IF(A65&lt;=$K$4,(B65-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>Demand!A66</f>
         <v>6.3999999999999932</v>
       </c>
       <c r="B66">
-        <f>$H$2/A66</f>
-        <v>3.1250000000000031</v>
+        <f t="shared" si="3"/>
+        <v>3.906250000000004</v>
       </c>
       <c r="C66">
-        <f>$H$3*(A66^$H$4)</f>
-        <v>80.954308100310357</v>
+        <f t="shared" si="1"/>
+        <v>88.222690585735734</v>
       </c>
       <c r="D66">
-        <f>IF(A66&lt;=$G$7,($H$7-C66),0)</f>
+        <f t="shared" si="2"/>
+        <v>262.60663813859315</v>
+      </c>
+      <c r="E66">
+        <f>IF(A66&lt;=$K$4,($L$4-D66),0)</f>
         <v>0</v>
       </c>
-      <c r="E66">
-        <f>IF(A66&lt;=$G$7,(B66-$H$7),0)</f>
+      <c r="F66">
+        <f>IF(A66&lt;=$K$4,(B66-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>Demand!A67</f>
         <v>6.4999999999999929</v>
       </c>
       <c r="B67">
-        <f>$H$2/A67</f>
-        <v>3.0769230769230802</v>
+        <f t="shared" ref="B67:B98" si="4">$I$2/A67</f>
+        <v>3.8461538461538503</v>
       </c>
       <c r="C67">
-        <f>$H$3*(A67^$H$4)</f>
-        <v>82.859067095882608</v>
+        <f t="shared" si="1"/>
+        <v>90.969947528000773</v>
       </c>
       <c r="D67">
-        <f>IF(A67&lt;=$G$7,($H$7-C67),0)</f>
+        <f t="shared" si="2"/>
+        <v>271.0045029986037</v>
+      </c>
+      <c r="E67">
+        <f>IF(A67&lt;=$K$4,($L$4-D67),0)</f>
         <v>0</v>
       </c>
-      <c r="E67">
-        <f>IF(A67&lt;=$G$7,(B67-$H$7),0)</f>
+      <c r="F67">
+        <f>IF(A67&lt;=$K$4,(B67-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>Demand!A68</f>
         <v>6.5999999999999925</v>
       </c>
       <c r="B68">
-        <f>$H$2/A68</f>
-        <v>3.0303030303030338</v>
+        <f t="shared" si="4"/>
+        <v>3.7878787878787921</v>
       </c>
       <c r="C68">
-        <f>$H$3*(A68^$H$4)</f>
-        <v>84.778535019189732</v>
+        <f t="shared" ref="C68:C102" si="5">($I$3/A68)+$I$4*A68^((1-$I$5)/$I$5)</f>
+        <v>93.762211043693242</v>
       </c>
       <c r="D68">
-        <f>IF(A68&lt;=$G$7,($H$7-C68),0)</f>
+        <f t="shared" ref="D68:D102" si="6">($I$4/$I$5)*A68^((1-$I$5)/$I$5)</f>
+        <v>279.53654402588404</v>
+      </c>
+      <c r="E68">
+        <f>IF(A68&lt;=$K$4,($L$4-D68),0)</f>
         <v>0</v>
       </c>
-      <c r="E68">
-        <f>IF(A68&lt;=$G$7,(B68-$H$7),0)</f>
+      <c r="F68">
+        <f>IF(A68&lt;=$K$4,(B68-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>Demand!A69</f>
         <v>6.6999999999999922</v>
       </c>
       <c r="B69">
-        <f>$H$2/A69</f>
-        <v>2.9850746268656749</v>
+        <f t="shared" si="4"/>
+        <v>3.7313432835820941</v>
       </c>
       <c r="C69">
-        <f>$H$3*(A69^$H$4)</f>
-        <v>86.712600007149916</v>
+        <f t="shared" si="5"/>
+        <v>96.599469006996529</v>
       </c>
       <c r="D69">
-        <f>IF(A69&lt;=$G$7,($H$7-C69),0)</f>
+        <f t="shared" si="6"/>
+        <v>288.20282331382936</v>
+      </c>
+      <c r="E69">
+        <f>IF(A69&lt;=$K$4,($L$4-D69),0)</f>
         <v>0</v>
       </c>
-      <c r="E69">
-        <f>IF(A69&lt;=$G$7,(B69-$H$7),0)</f>
+      <c r="F69">
+        <f>IF(A69&lt;=$K$4,(B69-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>Demand!A70</f>
         <v>6.7999999999999918</v>
       </c>
       <c r="B70">
-        <f>$H$2/A70</f>
-        <v>2.9411764705882386</v>
+        <f t="shared" si="4"/>
+        <v>3.6764705882352984</v>
       </c>
       <c r="C70">
-        <f>$H$3*(A70^$H$4)</f>
-        <v>88.661152710755871</v>
+        <f t="shared" si="5"/>
+        <v>99.481710911822788</v>
       </c>
       <c r="D70">
-        <f>IF(A70&lt;=$G$7,($H$7-C70),0)</f>
+        <f t="shared" si="6"/>
+        <v>297.00340205008689</v>
+      </c>
+      <c r="E70">
+        <f>IF(A70&lt;=$K$4,($L$4-D70),0)</f>
         <v>0</v>
       </c>
-      <c r="E70">
-        <f>IF(A70&lt;=$G$7,(B70-$H$7),0)</f>
+      <c r="F70">
+        <f>IF(A70&lt;=$K$4,(B70-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>Demand!A71</f>
         <v>6.8999999999999915</v>
       </c>
       <c r="B71">
-        <f>$H$2/A71</f>
-        <v>2.8985507246376847</v>
+        <f t="shared" si="4"/>
+        <v>3.623188405797106</v>
       </c>
       <c r="C71">
-        <f>$H$3*(A71^$H$4)</f>
-        <v>90.624086202289362</v>
+        <f t="shared" si="5"/>
+        <v>102.40892774150693</v>
       </c>
       <c r="D71">
-        <f>IF(A71&lt;=$G$7,($H$7-C71),0)</f>
+        <f t="shared" si="6"/>
+        <v>305.93834054299418</v>
+      </c>
+      <c r="E71">
+        <f>IF(A71&lt;=$K$4,($L$4-D71),0)</f>
         <v>0</v>
       </c>
-      <c r="E71">
-        <f>IF(A71&lt;=$G$7,(B71-$H$7),0)</f>
+      <c r="F71">
+        <f>IF(A71&lt;=$K$4,(B71-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>Demand!A72</f>
         <v>6.9999999999999911</v>
       </c>
       <c r="B72">
-        <f>$H$2/A72</f>
-        <v>2.8571428571428608</v>
+        <f t="shared" si="4"/>
+        <v>3.5714285714285761</v>
       </c>
       <c r="C72">
-        <f>$H$3*(A72^$H$4)</f>
-        <v>92.60129588726052</v>
+        <f t="shared" si="5"/>
+        <v>105.38111185004023</v>
       </c>
       <c r="D72">
-        <f>IF(A72&lt;=$G$7,($H$7-C72),0)</f>
+        <f t="shared" si="6"/>
+        <v>315.00769824687512</v>
+      </c>
+      <c r="E72">
+        <f>IF(A72&lt;=$K$4,($L$4-D72),0)</f>
         <v>0</v>
       </c>
-      <c r="E72">
-        <f>IF(A72&lt;=$G$7,(B72-$H$7),0)</f>
+      <c r="F72">
+        <f>IF(A72&lt;=$K$4,(B72-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>Demand!A73</f>
         <v>7.0999999999999908</v>
       </c>
       <c r="B73">
-        <f>$H$2/A73</f>
-        <v>2.816901408450708</v>
+        <f t="shared" si="4"/>
+        <v>3.5211267605633849</v>
       </c>
       <c r="C73">
-        <f>$H$3*(A73^$H$4)</f>
-        <v>94.592679420766814</v>
+        <f t="shared" si="5"/>
+        <v>108.39825685368811</v>
       </c>
       <c r="D73">
-        <f>IF(A73&lt;=$G$7,($H$7-C73),0)</f>
+        <f t="shared" si="6"/>
+        <v>324.21153378625075</v>
+      </c>
+      <c r="E73">
+        <f>IF(A73&lt;=$K$4,($L$4-D73),0)</f>
         <v>0</v>
       </c>
-      <c r="E73">
-        <f>IF(A73&lt;=$G$7,(B73-$H$7),0)</f>
+      <c r="F73">
+        <f>IF(A73&lt;=$K$4,(B73-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>Demand!A74</f>
         <v>7.1999999999999904</v>
       </c>
       <c r="B74">
-        <f>$H$2/A74</f>
-        <v>2.7777777777777817</v>
+        <f t="shared" si="4"/>
+        <v>3.4722222222222268</v>
       </c>
       <c r="C74">
-        <f>$H$3*(A74^$H$4)</f>
-        <v>96.598136627990698</v>
+        <f t="shared" si="5"/>
+        <v>111.4603575319699</v>
       </c>
       <c r="D74">
-        <f>IF(A74&lt;=$G$7,($H$7-C74),0)</f>
+        <f t="shared" si="6"/>
+        <v>333.54990497903339</v>
+      </c>
+      <c r="E74">
+        <f>IF(A74&lt;=$K$4,($L$4-D74),0)</f>
         <v>0</v>
       </c>
-      <c r="E74">
-        <f>IF(A74&lt;=$G$7,(B74-$H$7),0)</f>
+      <c r="F74">
+        <f>IF(A74&lt;=$K$4,(B74-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>Demand!A75</f>
         <v>7.2999999999999901</v>
       </c>
       <c r="B75">
-        <f>$H$2/A75</f>
-        <v>2.7397260273972641</v>
+        <f t="shared" si="4"/>
+        <v>3.4246575342465801</v>
       </c>
       <c r="C75">
-        <f>$H$3*(A75^$H$4)</f>
-        <v>98.617569428575763</v>
+        <f t="shared" si="5"/>
+        <v>114.56740973708737</v>
       </c>
       <c r="D75">
-        <f>IF(A75&lt;=$G$7,($H$7-C75),0)</f>
+        <f t="shared" si="6"/>
+        <v>343.02286885875378</v>
+      </c>
+      <c r="E75">
+        <f>IF(A75&lt;=$K$4,($L$4-D75),0)</f>
         <v>0</v>
       </c>
-      <c r="E75">
-        <f>IF(A75&lt;=$G$7,(B75-$H$7),0)</f>
+      <c r="F75">
+        <f>IF(A75&lt;=$K$4,(B75-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>Demand!A76</f>
         <v>7.3999999999999897</v>
       </c>
       <c r="B76">
-        <f>$H$2/A76</f>
-        <v>2.7027027027027066</v>
+        <f t="shared" si="4"/>
+        <v>3.378378378378383</v>
       </c>
       <c r="C76">
-        <f>$H$3*(A76^$H$4)</f>
-        <v>100.65088176464204</v>
+        <f t="shared" si="5"/>
+        <v>117.71941031099171</v>
       </c>
       <c r="D76">
-        <f>IF(A76&lt;=$G$7,($H$7-C76),0)</f>
+        <f t="shared" si="6"/>
+        <v>352.63048169587984</v>
+      </c>
+      <c r="E76">
+        <f>IF(A76&lt;=$K$4,($L$4-D76),0)</f>
         <v>0</v>
       </c>
-      <c r="E76">
-        <f>IF(A76&lt;=$G$7,(B76-$H$7),0)</f>
+      <c r="F76">
+        <f>IF(A76&lt;=$K$4,(B76-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>Demand!A77</f>
         <v>7.4999999999999893</v>
       </c>
       <c r="B77">
-        <f>$H$2/A77</f>
-        <v>2.6666666666666705</v>
+        <f t="shared" si="4"/>
+        <v>3.3333333333333379</v>
       </c>
       <c r="C77">
-        <f>$H$3*(A77^$H$4)</f>
-        <v>102.69797953221843</v>
+        <f t="shared" si="5"/>
+        <v>120.91635700936347</v>
       </c>
       <c r="D77">
-        <f>IF(A77&lt;=$G$7,($H$7-C77),0)</f>
+        <f t="shared" si="6"/>
+        <v>362.37279901827316</v>
+      </c>
+      <c r="E77">
+        <f>IF(A77&lt;=$K$4,($L$4-D77),0)</f>
         <v>0</v>
       </c>
-      <c r="E77">
-        <f>IF(A77&lt;=$G$7,(B77-$H$7),0)</f>
+      <c r="F77">
+        <f>IF(A77&lt;=$K$4,(B77-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>Demand!A78</f>
         <v>7.599999999999989</v>
       </c>
       <c r="B78">
-        <f>$H$2/A78</f>
-        <v>2.6315789473684248</v>
+        <f t="shared" si="4"/>
+        <v>3.289473684210531</v>
       </c>
       <c r="C78">
-        <f>$H$3*(A78^$H$4)</f>
-        <v>104.75877051588542</v>
+        <f t="shared" si="5"/>
+        <v>124.15824843185709</v>
       </c>
       <c r="D78">
-        <f>IF(A78&lt;=$G$7,($H$7-C78),0)</f>
+        <f t="shared" si="6"/>
+        <v>372.24987563082692</v>
+      </c>
+      <c r="E78">
+        <f>IF(A78&lt;=$K$4,($L$4-D78),0)</f>
         <v>0</v>
       </c>
-      <c r="E78">
-        <f>IF(A78&lt;=$G$7,(B78-$H$7),0)</f>
+      <c r="F78">
+        <f>IF(A78&lt;=$K$4,(B78-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>Demand!A79</f>
         <v>7.6999999999999886</v>
       </c>
       <c r="B79">
-        <f>$H$2/A79</f>
-        <v>2.5974025974026014</v>
+        <f t="shared" si="4"/>
+        <v>3.2467532467532516</v>
       </c>
       <c r="C79">
-        <f>$H$3*(A79^$H$4)</f>
-        <v>106.83316432643915</v>
+        <f t="shared" si="5"/>
+        <v>127.44508395803268</v>
       </c>
       <c r="D79">
-        <f>IF(A79&lt;=$G$7,($H$7-C79),0)</f>
+        <f t="shared" si="6"/>
+        <v>382.26176563433751</v>
+      </c>
+      <c r="E79">
+        <f>IF(A79&lt;=$K$4,($L$4-D79),0)</f>
         <v>0</v>
       </c>
-      <c r="E79">
-        <f>IF(A79&lt;=$G$7,(B79-$H$7),0)</f>
+      <c r="F79">
+        <f>IF(A79&lt;=$K$4,(B79-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>Demand!A80</f>
         <v>7.7999999999999883</v>
       </c>
       <c r="B80">
-        <f>$H$2/A80</f>
-        <v>2.5641025641025679</v>
+        <f t="shared" si="4"/>
+        <v>3.2051282051282097</v>
       </c>
       <c r="C80">
-        <f>$H$3*(A80^$H$4)</f>
-        <v>108.9210723413975</v>
+        <f t="shared" si="5"/>
+        <v>130.77686368845093</v>
       </c>
       <c r="D80">
-        <f>IF(A80&lt;=$G$7,($H$7-C80),0)</f>
+        <f t="shared" si="6"/>
+        <v>392.40852244363532</v>
+      </c>
+      <c r="E80">
+        <f>IF(A80&lt;=$K$4,($L$4-D80),0)</f>
         <v>0</v>
       </c>
-      <c r="E80">
-        <f>IF(A80&lt;=$G$7,(B80-$H$7),0)</f>
+      <c r="F80">
+        <f>IF(A80&lt;=$K$4,(B80-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>Demand!A81</f>
         <v>7.8999999999999879</v>
       </c>
       <c r="B81">
-        <f>$H$2/A81</f>
-        <v>2.5316455696202569</v>
+        <f t="shared" si="4"/>
+        <v>3.1645569620253213</v>
       </c>
       <c r="C81">
-        <f>$H$3*(A81^$H$4)</f>
-        <v>111.02240764818582</v>
+        <f t="shared" si="5"/>
+        <v>134.15358839046908</v>
       </c>
       <c r="D81">
-        <f>IF(A81&lt;=$G$7,($H$7-C81),0)</f>
+        <f t="shared" si="6"/>
+        <v>402.69019880502714</v>
+      </c>
+      <c r="E81">
+        <f>IF(A81&lt;=$K$4,($L$4-D81),0)</f>
         <v>0</v>
       </c>
-      <c r="E81">
-        <f>IF(A81&lt;=$G$7,(B81-$H$7),0)</f>
+      <c r="F81">
+        <f>IF(A81&lt;=$K$4,(B81-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>Demand!A82</f>
         <v>7.9999999999999876</v>
       </c>
       <c r="B82">
-        <f>$H$2/A82</f>
-        <v>2.500000000000004</v>
+        <f t="shared" si="4"/>
+        <v>3.1250000000000049</v>
       </c>
       <c r="C82">
-        <f>$H$3*(A82^$H$4)</f>
-        <v>113.13708498984735</v>
+        <f t="shared" si="5"/>
+        <v>137.57525944831471</v>
       </c>
       <c r="D82">
-        <f>IF(A82&lt;=$G$7,($H$7-C82),0)</f>
+        <f t="shared" si="6"/>
+        <v>413.10684681307487</v>
+      </c>
+      <c r="E82">
+        <f>IF(A82&lt;=$K$4,($L$4-D82),0)</f>
         <v>0</v>
       </c>
-      <c r="E82">
-        <f>IF(A82&lt;=$G$7,(B82-$H$7),0)</f>
+      <c r="F82">
+        <f>IF(A82&lt;=$K$4,(B82-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>Demand!A83</f>
         <v>8.0999999999999872</v>
       </c>
       <c r="B83">
-        <f>$H$2/A83</f>
-        <v>2.4691358024691397</v>
+        <f t="shared" si="4"/>
+        <v>3.0864197530864246</v>
       </c>
       <c r="C83">
-        <f>$H$3*(A83^$H$4)</f>
-        <v>115.26502071313715</v>
+        <f t="shared" si="5"/>
+        <v>141.04187881706133</v>
       </c>
       <c r="D83">
-        <f>IF(A83&lt;=$G$7,($H$7-C83),0)</f>
+        <f t="shared" si="6"/>
+        <v>423.65851792674772</v>
+      </c>
+      <c r="E83">
+        <f>IF(A83&lt;=$K$4,($L$4-D83),0)</f>
         <v>0</v>
       </c>
-      <c r="E83">
-        <f>IF(A83&lt;=$G$7,(B83-$H$7),0)</f>
+      <c r="F83">
+        <f>IF(A83&lt;=$K$4,(B83-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>Demand!A84</f>
         <v>8.1999999999999869</v>
       </c>
       <c r="B84">
-        <f>$H$2/A84</f>
-        <v>2.4390243902439064</v>
+        <f t="shared" si="4"/>
+        <v>3.048780487804883</v>
       </c>
       <c r="C84">
-        <f>$H$3*(A84^$H$4)</f>
-        <v>117.40613271886579</v>
+        <f t="shared" si="5"/>
+        <v>144.55344898016554</v>
       </c>
       <c r="D84">
-        <f>IF(A84&lt;=$G$7,($H$7-C84),0)</f>
+        <f t="shared" si="6"/>
+        <v>434.34526298498059</v>
+      </c>
+      <c r="E84">
+        <f>IF(A84&lt;=$K$4,($L$4-D84),0)</f>
         <v>0</v>
       </c>
-      <c r="E84">
-        <f>IF(A84&lt;=$G$7,(B84-$H$7),0)</f>
+      <c r="F84">
+        <f>IF(A84&lt;=$K$4,(B84-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>Demand!A85</f>
         <v>8.2999999999999865</v>
       </c>
       <c r="B85">
-        <f>$H$2/A85</f>
-        <v>2.4096385542168712</v>
+        <f t="shared" si="4"/>
+        <v>3.0120481927710894</v>
       </c>
       <c r="C85">
-        <f>$H$3*(A85^$H$4)</f>
-        <v>119.56034041436956</v>
+        <f t="shared" si="5"/>
+        <v>148.10997291025669</v>
       </c>
       <c r="D85">
-        <f>IF(A85&lt;=$G$7,($H$7-C85),0)</f>
+        <f t="shared" si="6"/>
+        <v>445.16713222166135</v>
+      </c>
+      <c r="E85">
+        <f>IF(A85&lt;=$K$4,($L$4-D85),0)</f>
         <v>0</v>
       </c>
-      <c r="E85">
-        <f>IF(A85&lt;=$G$7,(B85-$H$7),0)</f>
+      <c r="F85">
+        <f>IF(A85&lt;=$K$4,(B85-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>Demand!A86</f>
         <v>8.3999999999999861</v>
       </c>
       <c r="B86">
-        <f>$H$2/A86</f>
-        <v>2.3809523809523849</v>
+        <f t="shared" si="4"/>
+        <v>2.9761904761904812</v>
       </c>
       <c r="C86">
-        <f>$H$3*(A86^$H$4)</f>
-        <v>121.72756466799093</v>
+        <f t="shared" si="5"/>
+        <v>151.71145403290336</v>
       </c>
       <c r="D86">
-        <f>IF(A86&lt;=$G$7,($H$7-C86),0)</f>
+        <f t="shared" si="6"/>
+        <v>456.12417528008228</v>
+      </c>
+      <c r="E86">
+        <f>IF(A86&lt;=$K$4,($L$4-D86),0)</f>
         <v>0</v>
       </c>
-      <c r="E86">
-        <f>IF(A86&lt;=$G$7,(B86-$H$7),0)</f>
+      <c r="F86">
+        <f>IF(A86&lt;=$K$4,(B86-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>Demand!A87</f>
         <v>8.4999999999999858</v>
       </c>
       <c r="B87">
-        <f>$H$2/A87</f>
-        <v>2.3529411764705923</v>
+        <f t="shared" si="4"/>
+        <v>2.9411764705882404</v>
       </c>
       <c r="C87">
-        <f>$H$3*(A87^$H$4)</f>
-        <v>123.9077277654623</v>
+        <f t="shared" si="5"/>
+        <v>155.35789619310412</v>
       </c>
       <c r="D87">
-        <f>IF(A87&lt;=$G$7,($H$7-C87),0)</f>
+        <f t="shared" si="6"/>
+        <v>467.21644122687519</v>
+      </c>
+      <c r="E87">
+        <f>IF(A87&lt;=$K$4,($L$4-D87),0)</f>
         <v>0</v>
       </c>
-      <c r="E87">
-        <f>IF(A87&lt;=$G$7,(B87-$H$7),0)</f>
+      <c r="F87">
+        <f>IF(A87&lt;=$K$4,(B87-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>Demand!A88</f>
         <v>8.5999999999999854</v>
       </c>
       <c r="B88">
-        <f>$H$2/A88</f>
-        <v>2.3255813953488413</v>
+        <f t="shared" si="4"/>
+        <v>2.9069767441860512</v>
       </c>
       <c r="C88">
-        <f>$H$3*(A88^$H$4)</f>
-        <v>126.10075336809027</v>
+        <f t="shared" si="5"/>
+        <v>159.04930362427538</v>
       </c>
       <c r="D88">
-        <f>IF(A88&lt;=$G$7,($H$7-C88),0)</f>
+        <f t="shared" si="6"/>
+        <v>478.44397856545748</v>
+      </c>
+      <c r="E88">
+        <f>IF(A88&lt;=$K$4,($L$4-D88),0)</f>
         <v>0</v>
       </c>
-      <c r="E88">
-        <f>IF(A88&lt;=$G$7,(B88-$H$7),0)</f>
+      <c r="F88">
+        <f>IF(A88&lt;=$K$4,(B88-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>Demand!A89</f>
         <v>8.6999999999999851</v>
       </c>
       <c r="B89">
-        <f>$H$2/A89</f>
-        <v>2.2988505747126475</v>
+        <f t="shared" si="4"/>
+        <v>2.8735632183908093</v>
       </c>
       <c r="C89">
-        <f>$H$3*(A89^$H$4)</f>
-        <v>128.30656647264752</v>
+        <f t="shared" si="5"/>
+        <v>162.78568091952954</v>
       </c>
       <c r="D89">
-        <f>IF(A89&lt;=$G$7,($H$7-C89),0)</f>
+        <f t="shared" si="6"/>
+        <v>489.80683524900968</v>
+      </c>
+      <c r="E89">
+        <f>IF(A89&lt;=$K$4,($L$4-D89),0)</f>
         <v>0</v>
       </c>
-      <c r="E89">
-        <f>IF(A89&lt;=$G$7,(B89-$H$7),0)</f>
+      <c r="F89">
+        <f>IF(A89&lt;=$K$4,(B89-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>Demand!A90</f>
         <v>8.7999999999999847</v>
       </c>
       <c r="B90">
-        <f>$H$2/A90</f>
-        <v>2.2727272727272765</v>
+        <f t="shared" si="4"/>
+        <v>2.8409090909090957</v>
       </c>
       <c r="C90">
-        <f>$H$3*(A90^$H$4)</f>
-        <v>130.52509337288336</v>
+        <f t="shared" si="5"/>
+        <v>166.567033005057</v>
       </c>
       <c r="D90">
-        <f>IF(A90&lt;=$G$7,($H$7-C90),0)</f>
+        <f t="shared" si="6"/>
+        <v>501.30505869301021</v>
+      </c>
+      <c r="E90">
+        <f>IF(A90&lt;=$K$4,($L$4-D90),0)</f>
         <v>0</v>
       </c>
-      <c r="E90">
-        <f>IF(A90&lt;=$G$7,(B90-$H$7),0)</f>
+      <c r="F90">
+        <f>IF(A90&lt;=$K$4,(B90-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>Demand!A91</f>
         <v>8.8999999999999844</v>
       </c>
       <c r="B91">
-        <f>$H$2/A91</f>
-        <v>2.2471910112359592</v>
+        <f t="shared" si="4"/>
+        <v>2.8089887640449489</v>
       </c>
       <c r="C91">
-        <f>$H$3*(A91^$H$4)</f>
-        <v>132.75626162256867</v>
+        <f t="shared" si="5"/>
+        <v>170.39336511544076</v>
       </c>
       <c r="D91">
-        <f>IF(A91&lt;=$G$7,($H$7-C91),0)</f>
+        <f t="shared" si="6"/>
+        <v>512.93869578734177</v>
+      </c>
+      <c r="E91">
+        <f>IF(A91&lt;=$K$4,($L$4-D91),0)</f>
         <v>0</v>
       </c>
-      <c r="E91">
-        <f>IF(A91&lt;=$G$7,(B91-$H$7),0)</f>
+      <c r="F91">
+        <f>IF(A91&lt;=$K$4,(B91-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>Demand!A92</f>
         <v>8.999999999999984</v>
       </c>
       <c r="B92">
-        <f>$H$2/A92</f>
-        <v>2.2222222222222263</v>
+        <f t="shared" si="4"/>
+        <v>2.7777777777777826</v>
       </c>
       <c r="C92">
-        <f>$H$3*(A92^$H$4)</f>
-        <v>134.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>174.26468277074886</v>
       </c>
       <c r="D92">
-        <f>IF(A92&lt;=$G$7,($H$7-C92),0)</f>
+        <f t="shared" si="6"/>
+        <v>524.70779290799317</v>
+      </c>
+      <c r="E92">
+        <f>IF(A92&lt;=$K$4,($L$4-D92),0)</f>
         <v>0</v>
       </c>
-      <c r="E92">
-        <f>IF(A92&lt;=$G$7,(B92-$H$7),0)</f>
+      <c r="F92">
+        <f>IF(A92&lt;=$K$4,(B92-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>Demand!A93</f>
         <v>9.0999999999999837</v>
       </c>
       <c r="B93">
-        <f>$H$2/A93</f>
-        <v>2.1978021978022015</v>
+        <f t="shared" si="4"/>
+        <v>2.7472527472527521</v>
       </c>
       <c r="C93">
-        <f>$H$3*(A93^$H$4)</f>
-        <v>137.25623847388462</v>
+        <f t="shared" si="5"/>
+        <v>178.18099175526294</v>
       </c>
       <c r="D93">
-        <f>IF(A93&lt;=$G$7,($H$7-C93),0)</f>
+        <f t="shared" si="6"/>
+        <v>536.61239592836921</v>
+      </c>
+      <c r="E93">
+        <f>IF(A93&lt;=$K$4,($L$4-D93),0)</f>
         <v>0</v>
       </c>
-      <c r="E93">
-        <f>IF(A93&lt;=$G$7,(B93-$H$7),0)</f>
+      <c r="F93">
+        <f>IF(A93&lt;=$K$4,(B93-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>Demand!A94</f>
         <v>9.1999999999999833</v>
       </c>
       <c r="B94">
-        <f>$H$2/A94</f>
-        <v>2.1739130434782648</v>
+        <f t="shared" si="4"/>
+        <v>2.717391304347831</v>
       </c>
       <c r="C94">
-        <f>$H$3*(A94^$H$4)</f>
-        <v>139.52490817054814</v>
+        <f t="shared" si="5"/>
+        <v>182.14229809771695</v>
       </c>
       <c r="D94">
-        <f>IF(A94&lt;=$G$7,($H$7-C94),0)</f>
+        <f t="shared" si="6"/>
+        <v>548.65255023023576</v>
+      </c>
+      <c r="E94">
+        <f>IF(A94&lt;=$K$4,($L$4-D94),0)</f>
         <v>0</v>
       </c>
-      <c r="E94">
-        <f>IF(A94&lt;=$G$7,(B94-$H$7),0)</f>
+      <c r="F94">
+        <f>IF(A94&lt;=$K$4,(B94-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>Demand!A95</f>
         <v>9.2999999999999829</v>
       </c>
       <c r="B95">
-        <f>$H$2/A95</f>
-        <v>2.150537634408606</v>
+        <f t="shared" si="4"/>
+        <v>2.6881720430107574</v>
       </c>
       <c r="C95">
-        <f>$H$3*(A95^$H$4)</f>
-        <v>141.80594134238487</v>
+        <f t="shared" si="5"/>
+        <v>186.14860805292497</v>
       </c>
       <c r="D95">
-        <f>IF(A95&lt;=$G$7,($H$7-C95),0)</f>
+        <f t="shared" si="6"/>
+        <v>560.8283007143051</v>
+      </c>
+      <c r="E95">
+        <f>IF(A95&lt;=$K$4,($L$4-D95),0)</f>
         <v>0</v>
       </c>
-      <c r="E95">
-        <f>IF(A95&lt;=$G$7,(B95-$H$7),0)</f>
+      <c r="F95">
+        <f>IF(A95&lt;=$K$4,(B95-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>Demand!A96</f>
         <v>9.3999999999999826</v>
       </c>
       <c r="B96">
-        <f>$H$2/A96</f>
-        <v>2.1276595744680891</v>
+        <f t="shared" si="4"/>
+        <v>2.6595744680851112</v>
       </c>
       <c r="C96">
-        <f>$H$3*(A96^$H$4)</f>
-        <v>144.09927133750494</v>
+        <f t="shared" si="5"/>
+        <v>190.19992808469203</v>
       </c>
       <c r="D96">
-        <f>IF(A96&lt;=$G$7,($H$7-C96),0)</f>
+        <f t="shared" si="6"/>
+        <v>573.13969181047867</v>
+      </c>
+      <c r="E96">
+        <f>IF(A96&lt;=$K$4,($L$4-D96),0)</f>
         <v>0</v>
       </c>
-      <c r="E96">
-        <f>IF(A96&lt;=$G$7,(B96-$H$7),0)</f>
+      <c r="F96">
+        <f>IF(A96&lt;=$K$4,(B96-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>Demand!A97</f>
         <v>9.4999999999999822</v>
       </c>
       <c r="B97">
-        <f>$H$2/A97</f>
-        <v>2.1052631578947407</v>
+        <f t="shared" si="4"/>
+        <v>2.6315789473684261</v>
       </c>
       <c r="C97">
-        <f>$H$3*(A97^$H$4)</f>
-        <v>146.40483257051275</v>
+        <f t="shared" si="5"/>
+        <v>194.29626484991263</v>
       </c>
       <c r="D97">
-        <f>IF(A97&lt;=$G$7,($H$7-C97),0)</f>
+        <f t="shared" si="6"/>
+        <v>585.5867674877735</v>
+      </c>
+      <c r="E97">
+        <f>IF(A97&lt;=$K$4,($L$4-D97),0)</f>
         <v>0</v>
       </c>
-      <c r="E97">
-        <f>IF(A97&lt;=$G$7,(B97-$H$7),0)</f>
+      <c r="F97">
+        <f>IF(A97&lt;=$K$4,(B97-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>Demand!A98</f>
         <v>9.5999999999999819</v>
       </c>
       <c r="B98">
-        <f>$H$2/A98</f>
-        <v>2.0833333333333375</v>
+        <f t="shared" si="4"/>
+        <v>2.6041666666666714</v>
       </c>
       <c r="C98">
-        <f>$H$3*(A98^$H$4)</f>
-        <v>148.72256049436439</v>
+        <f t="shared" si="5"/>
+        <v>198.43762518376195</v>
       </c>
       <c r="D98">
-        <f>IF(A98&lt;=$G$7,($H$7-C98),0)</f>
+        <f t="shared" si="6"/>
+        <v>598.16957126392515</v>
+      </c>
+      <c r="E98">
+        <f>IF(A98&lt;=$K$4,($L$4-D98),0)</f>
         <v>0</v>
       </c>
-      <c r="E98">
-        <f>IF(A98&lt;=$G$7,(B98-$H$7),0)</f>
+      <c r="F98">
+        <f>IF(A98&lt;=$K$4,(B98-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>Demand!A99</f>
         <v>9.6999999999999815</v>
       </c>
       <c r="B99">
-        <f>$H$2/A99</f>
-        <v>2.0618556701030966</v>
+        <f t="shared" ref="B99:B130" si="7">$I$2/A99</f>
+        <v>2.577319587628871</v>
       </c>
       <c r="C99">
-        <f>$H$3*(A99^$H$4)</f>
-        <v>151.05239157325468</v>
+        <f t="shared" si="5"/>
+        <v>202.62401608590272</v>
       </c>
       <c r="D99">
-        <f>IF(A99&lt;=$G$7,($H$7-C99),0)</f>
+        <f t="shared" si="6"/>
+        <v>610.88814621470055</v>
+      </c>
+      <c r="E99">
+        <f>IF(A99&lt;=$K$4,($L$4-D99),0)</f>
         <v>0</v>
       </c>
-      <c r="E99">
-        <f>IF(A99&lt;=$G$7,(B99-$H$7),0)</f>
+      <c r="F99">
+        <f>IF(A99&lt;=$K$4,(B99-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>Demand!A100</f>
         <v>9.7999999999999812</v>
       </c>
       <c r="B100">
-        <f>$H$2/A100</f>
-        <v>2.0408163265306163</v>
+        <f t="shared" si="7"/>
+        <v>2.5510204081632701</v>
       </c>
       <c r="C100">
-        <f>$H$3*(A100^$H$4)</f>
-        <v>153.39426325648515</v>
+        <f t="shared" si="5"/>
+        <v>206.85544470762991</v>
       </c>
       <c r="D100">
-        <f>IF(A100&lt;=$G$7,($H$7-C100),0)</f>
+        <f t="shared" si="6"/>
+        <v>623.74253498292308</v>
+      </c>
+      <c r="E100">
+        <f>IF(A100&lt;=$K$4,($L$4-D100),0)</f>
         <v>0</v>
       </c>
-      <c r="E100">
-        <f>IF(A100&lt;=$G$7,(B100-$H$7),0)</f>
+      <c r="F100">
+        <f>IF(A100&lt;=$K$4,(B100-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>Demand!A101</f>
         <v>9.8999999999999808</v>
       </c>
       <c r="B101">
-        <f>$H$2/A101</f>
-        <v>2.0202020202020243</v>
+        <f t="shared" si="7"/>
+        <v>2.52525252525253</v>
       </c>
       <c r="C101">
-        <f>$H$3*(A101^$H$4)</f>
-        <v>155.74811395326702</v>
+        <f t="shared" si="5"/>
+        <v>211.13191833988259</v>
       </c>
       <c r="D101">
-        <f>IF(A101&lt;=$G$7,($H$7-C101),0)</f>
+        <f t="shared" si="6"/>
+        <v>636.73277978721694</v>
+      </c>
+      <c r="E101">
+        <f>IF(A101&lt;=$K$4,($L$4-D101),0)</f>
         <v>0</v>
       </c>
-      <c r="E101">
-        <f>IF(A101&lt;=$G$7,(B101-$H$7),0)</f>
+      <c r="F101">
+        <f>IF(A101&lt;=$K$4,(B101-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>Demand!A102</f>
         <v>9.9999999999999805</v>
       </c>
       <c r="B102">
-        <f>$H$2/A102</f>
-        <v>2.000000000000004</v>
+        <f t="shared" si="7"/>
+        <v>2.5000000000000049</v>
       </c>
       <c r="C102">
-        <f>$H$3*(A102^$H$4)</f>
-        <v>158.11388300841853</v>
+        <f t="shared" si="5"/>
+        <v>215.4534444020635</v>
       </c>
       <c r="D102">
-        <f>IF(A102&lt;=$G$7,($H$7-C102),0)</f>
+        <f t="shared" si="6"/>
+        <v>649.85892243049545</v>
+      </c>
+      <c r="E102">
+        <f>IF(A102&lt;=$K$4,($L$4-D102),0)</f>
         <v>0</v>
       </c>
-      <c r="E102">
-        <f>IF(A102&lt;=$G$7,(B102-$H$7),0)</f>
+      <c r="F102">
+        <f>IF(A102&lt;=$K$4,(B102-$L$4),0)</f>
         <v>0</v>
       </c>
     </row>
